--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="258">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 21/05/2020 16:15:35</t>
+    <t>Issue date: 21/05/2020 17:15:28</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>NW  CAF</t>
+    <t>ACF  CAF  AOF</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,37 +202,523 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>69.27 *</t>
-  </si>
-  <si>
-    <t>68.47 *</t>
-  </si>
-  <si>
-    <t>70.75 *</t>
-  </si>
-  <si>
-    <t>73.57 *</t>
-  </si>
-  <si>
-    <t>56.15 *</t>
-  </si>
-  <si>
-    <t>PW  CAF</t>
-  </si>
-  <si>
-    <t>69.25 *</t>
-  </si>
-  <si>
-    <t>68.5 *</t>
-  </si>
-  <si>
-    <t>70.7 *</t>
-  </si>
-  <si>
-    <t>70.65 *</t>
-  </si>
-  <si>
-    <t>65.72 *</t>
+    <t>76.45 *</t>
+  </si>
+  <si>
+    <t>54.58 *</t>
+  </si>
+  <si>
+    <t>58.95 *</t>
+  </si>
+  <si>
+    <t>75.45 *</t>
+  </si>
+  <si>
+    <t>63.65 *</t>
+  </si>
+  <si>
+    <t>AGF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>72.75 *</t>
+  </si>
+  <si>
+    <t>70.53 *</t>
+  </si>
+  <si>
+    <t>71.25 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5 </t>
+  </si>
+  <si>
+    <t>52.23 *</t>
+  </si>
+  <si>
+    <t>ALF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.67 *</t>
+  </si>
+  <si>
+    <t>70.93 *</t>
+  </si>
+  <si>
+    <t>72.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7 </t>
+  </si>
+  <si>
+    <t>52.2 *</t>
+  </si>
+  <si>
+    <t>ANF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>72.9 *</t>
+  </si>
+  <si>
+    <t>73.3 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.28 </t>
+  </si>
+  <si>
+    <t>59.65 *</t>
+  </si>
+  <si>
+    <t>CUF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.03 </t>
+  </si>
+  <si>
+    <t>68.2 *</t>
+  </si>
+  <si>
+    <t>DEF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.95 *</t>
+  </si>
+  <si>
+    <t>71.43 *</t>
+  </si>
+  <si>
+    <t>74.95 *</t>
+  </si>
+  <si>
+    <t>74.55 *</t>
+  </si>
+  <si>
+    <t>71.53 *</t>
+  </si>
+  <si>
+    <t>E50TE  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.55 *</t>
+  </si>
+  <si>
+    <t>72.22 *</t>
+  </si>
+  <si>
+    <t>75.37 *</t>
+  </si>
+  <si>
+    <t>77.83 *</t>
+  </si>
+  <si>
+    <t>56.75 *</t>
+  </si>
+  <si>
+    <t>E50TTE  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.18 </t>
+  </si>
+  <si>
+    <t>72.78 *</t>
+  </si>
+  <si>
+    <t>73.67 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.55 </t>
+  </si>
+  <si>
+    <t>58.2 *</t>
+  </si>
+  <si>
+    <t>FDF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.88 *</t>
+  </si>
+  <si>
+    <t>69.8 *</t>
+  </si>
+  <si>
+    <t>72.35 *</t>
+  </si>
+  <si>
+    <t>74.12 *</t>
+  </si>
+  <si>
+    <t>70.3 *</t>
+  </si>
+  <si>
+    <t>FPE  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4 </t>
+  </si>
+  <si>
+    <t>75.2 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.25 </t>
+  </si>
+  <si>
+    <t>FRC  CAF  AOF</t>
+  </si>
+  <si>
+    <t>70.42 *</t>
+  </si>
+  <si>
+    <t>70.73 *</t>
+  </si>
+  <si>
+    <t>71.57 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.62 </t>
+  </si>
+  <si>
+    <t>FTF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>72.15 *</t>
+  </si>
+  <si>
+    <t>72.87 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.65 </t>
+  </si>
+  <si>
+    <t>56.57 *</t>
+  </si>
+  <si>
+    <t>HUF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.17 *</t>
+  </si>
+  <si>
+    <t>73.27 *</t>
+  </si>
+  <si>
+    <t>72.92 *</t>
+  </si>
+  <si>
+    <t>51.15 *</t>
+  </si>
+  <si>
+    <t>INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.65 </t>
+  </si>
+  <si>
+    <t>79.13 *</t>
+  </si>
+  <si>
+    <t>LOF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>74.53 *</t>
+  </si>
+  <si>
+    <t>72.45 *</t>
+  </si>
+  <si>
+    <t>73.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.42 </t>
+  </si>
+  <si>
+    <t>62.0 *</t>
+  </si>
+  <si>
+    <t>NOF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>74.13 *</t>
+  </si>
+  <si>
+    <t>75.62 *</t>
+  </si>
+  <si>
+    <t>75.07 *</t>
+  </si>
+  <si>
+    <t>79.53 *</t>
+  </si>
+  <si>
+    <t>71.62 *</t>
+  </si>
+  <si>
+    <t>NW  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.9 *</t>
+  </si>
+  <si>
+    <t>76.1 *</t>
+  </si>
+  <si>
+    <t>60.37 *</t>
+  </si>
+  <si>
+    <t>PNF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>70.0 *</t>
+  </si>
+  <si>
+    <t>73.05 *</t>
+  </si>
+  <si>
+    <t>77.15 *</t>
+  </si>
+  <si>
+    <t>64.7 *</t>
+  </si>
+  <si>
+    <t>PW  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.97 *</t>
+  </si>
+  <si>
+    <t>73.47 *</t>
+  </si>
+  <si>
+    <t>68.98 *</t>
+  </si>
+  <si>
+    <t>REF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.92 </t>
+  </si>
+  <si>
+    <t>62.45 *</t>
+  </si>
+  <si>
+    <t>SIF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>72.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.6 </t>
+  </si>
+  <si>
+    <t>75.15 *</t>
+  </si>
+  <si>
+    <t>71.3 *</t>
+  </si>
+  <si>
+    <t>SKF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>70.83 *</t>
+  </si>
+  <si>
+    <t>71.72 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.23 </t>
+  </si>
+  <si>
+    <t>53.05 *</t>
+  </si>
+  <si>
+    <t>SLF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.38 *</t>
+  </si>
+  <si>
+    <t>69.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.28 </t>
+  </si>
+  <si>
+    <t>52.03 *</t>
+  </si>
+  <si>
+    <t>SPE  CAF  AOF</t>
+  </si>
+  <si>
+    <t>70.05 *</t>
+  </si>
+  <si>
+    <t>72.2 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.92 </t>
+  </si>
+  <si>
+    <t>65.9 *</t>
+  </si>
+  <si>
+    <t>SPF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>69.78 *</t>
+  </si>
+  <si>
+    <t>71.15 *</t>
+  </si>
+  <si>
+    <t>75.87 *</t>
+  </si>
+  <si>
+    <t>61.57 *</t>
+  </si>
+  <si>
+    <t>SXF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.23 *</t>
+  </si>
+  <si>
+    <t>74.3 *</t>
+  </si>
+  <si>
+    <t>73.77 *</t>
+  </si>
+  <si>
+    <t>77.67 *</t>
+  </si>
+  <si>
+    <t>58.4 *</t>
+  </si>
+  <si>
+    <t>TE  CAF  AOF</t>
+  </si>
+  <si>
+    <t>69.47 *</t>
+  </si>
+  <si>
+    <t>71.8 *</t>
+  </si>
+  <si>
+    <t>69.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.03 </t>
+  </si>
+  <si>
+    <t>THF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6 </t>
+  </si>
+  <si>
+    <t>74.15 *</t>
+  </si>
+  <si>
+    <t>75.9 *</t>
+  </si>
+  <si>
+    <t>66.67 *</t>
+  </si>
+  <si>
+    <t>TPE  CAF  AOF</t>
+  </si>
+  <si>
+    <t>74.42 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.65 </t>
+  </si>
+  <si>
+    <t>VOF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>73.83 *</t>
+  </si>
+  <si>
+    <t>74.58 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.35 </t>
+  </si>
+  <si>
+    <t>50.47 *</t>
+  </si>
+  <si>
+    <t>WEF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>71.83 *</t>
+  </si>
+  <si>
+    <t>74.25 *</t>
+  </si>
+  <si>
+    <t>72.93 *</t>
+  </si>
+  <si>
+    <t>76.15 *</t>
+  </si>
+  <si>
+    <t>70.97 *</t>
+  </si>
+  <si>
+    <t>XTE  CAF  AOF</t>
+  </si>
+  <si>
+    <t>70.85 *</t>
+  </si>
+  <si>
+    <t>69.53 *</t>
+  </si>
+  <si>
+    <t>75.6 *</t>
+  </si>
+  <si>
+    <t>73.55 *</t>
   </si>
   <si>
     <t>Colors</t>
@@ -373,7 +859,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,7 +867,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,8 +924,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S42" totalsRowShown="0">
-  <autoFilter ref="A40:S42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S72" totalsRowShown="0">
+  <autoFilter ref="A40:S72"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -750,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,7 +1244,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -858,7 +1344,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -866,7 +1352,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -877,7 +1363,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1008,71 +1494,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="M40" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="P40" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="Q40" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="R40" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="S40" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1092,22 +1578,25 @@
       <c r="M41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="S41" s="9">
+        <v>76.45</v>
+      </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1124,7 +1613,7 @@
       <c r="L42" s="9">
         <v>20</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="9" t="s">
         <v>69</v>
       </c>
       <c r="N42" s="9" t="s">
@@ -1136,8 +1625,1151 @@
       <c r="P42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="S42" s="9">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="8">
+        <v>52</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="9">
+        <v>5</v>
+      </c>
+      <c r="L43" s="9">
+        <v>20</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S43" s="9">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="8">
+        <v>58</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="9">
+        <v>5</v>
+      </c>
+      <c r="L44" s="9">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S44" s="9">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="8">
+        <v>122</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="9">
+        <v>5</v>
+      </c>
+      <c r="L45" s="9">
+        <v>20</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" s="9">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="8">
+        <v>114</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="9">
+        <v>5</v>
+      </c>
+      <c r="L46" s="9">
+        <v>20</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S46" s="9">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="8">
+        <v>93</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5</v>
+      </c>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" s="9">
+        <v>77.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="8">
+        <v>93</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="S48" s="9">
+        <v>77.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="8">
+        <v>145</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="9">
+        <v>5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S49" s="9">
+        <v>74.12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="8">
+        <v>64</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="9">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="S50" s="9">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="8">
+        <v>58</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" s="9">
+        <v>80.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="8">
+        <v>93</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="9">
+        <v>5</v>
+      </c>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="S52" s="9">
+        <v>76.65000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="8">
+        <v>76</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="9">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="S53" s="9">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="8">
+        <v>125</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="9">
+        <v>5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S54" s="9">
+        <v>82.65000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="8">
+        <v>56</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="9">
+        <v>5</v>
+      </c>
+      <c r="L55" s="9">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S55" s="9">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="8">
+        <v>75</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5</v>
+      </c>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S56" s="9">
+        <v>79.53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="8">
+        <v>44</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="9">
+        <v>5</v>
+      </c>
+      <c r="L57" s="9">
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="S57" s="9">
+        <v>76.09999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="8">
+        <v>131</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="9">
+        <v>5</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S58" s="9">
+        <v>77.15000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="8">
+        <v>44</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="9">
+        <v>5</v>
+      </c>
+      <c r="L59" s="9">
+        <v>20</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S59" s="9">
+        <v>73.47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="8">
+        <v>48</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" s="9">
+        <v>5</v>
+      </c>
+      <c r="L60" s="9">
+        <v>20</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S60" s="9">
+        <v>78.92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="8">
+        <v>107</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="9">
+        <v>5</v>
+      </c>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="S61" s="9">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="8">
+        <v>52</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="9">
+        <v>5</v>
+      </c>
+      <c r="L62" s="9">
+        <v>20</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S62" s="9">
+        <v>80.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="8">
+        <v>69</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="9">
+        <v>5</v>
+      </c>
+      <c r="L63" s="9">
+        <v>20</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="S63" s="9">
+        <v>79.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="8">
+        <v>53</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="9">
+        <v>5</v>
+      </c>
+      <c r="L64" s="9">
+        <v>20</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="S64" s="9">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="8">
+        <v>77</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="9">
+        <v>5</v>
+      </c>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="S65" s="9">
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="8">
+        <v>78</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="9">
+        <v>5</v>
+      </c>
+      <c r="L66" s="9">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="S66" s="9">
+        <v>77.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="8">
+        <v>68</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="9">
+        <v>5</v>
+      </c>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S67" s="9">
+        <v>78.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="8">
+        <v>117</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="9">
+        <v>5</v>
+      </c>
+      <c r="L68" s="9">
+        <v>20</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="P68" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="S68" s="9">
+        <v>77.83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="8">
+        <v>75</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" s="9">
+        <v>5</v>
+      </c>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P69" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="S69" s="9">
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="8">
+        <v>110</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="9">
+        <v>5</v>
+      </c>
+      <c r="L70" s="9">
+        <v>20</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="S70" s="9">
+        <v>81.34999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="8">
+        <v>47</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" s="9">
+        <v>5</v>
+      </c>
+      <c r="L71" s="9">
+        <v>20</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="S71" s="9">
+        <v>76.15000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="8">
+        <v>110</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K72" s="9">
+        <v>5</v>
+      </c>
+      <c r="L72" s="9">
+        <v>20</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="S72" s="9">
+        <v>75.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="239">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 21/05/2020 17:15:28</t>
+    <t>Issue date: 21/05/2020 18:44:22</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  CAF  AOF</t>
+    <t>ACF  INF  CAF  AOF</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,229 +202,175 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>76.45 *</t>
-  </si>
-  <si>
-    <t>54.58 *</t>
-  </si>
-  <si>
-    <t>58.95 *</t>
-  </si>
-  <si>
-    <t>75.45 *</t>
-  </si>
-  <si>
-    <t>63.65 *</t>
-  </si>
-  <si>
-    <t>AGF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>72.75 *</t>
-  </si>
-  <si>
-    <t>70.53 *</t>
-  </si>
-  <si>
-    <t>71.25 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5 </t>
-  </si>
-  <si>
-    <t>52.23 *</t>
-  </si>
-  <si>
-    <t>ALF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.67 *</t>
-  </si>
-  <si>
-    <t>70.93 *</t>
-  </si>
-  <si>
-    <t>72.6 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7 </t>
-  </si>
-  <si>
-    <t>52.2 *</t>
-  </si>
-  <si>
-    <t>ANF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>72.9 *</t>
-  </si>
-  <si>
-    <t>73.3 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.28 </t>
-  </si>
-  <si>
-    <t>59.65 *</t>
-  </si>
-  <si>
-    <t>CUF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.03 </t>
-  </si>
-  <si>
-    <t>68.2 *</t>
-  </si>
-  <si>
-    <t>DEF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.95 *</t>
-  </si>
-  <si>
-    <t>71.43 *</t>
-  </si>
-  <si>
-    <t>74.95 *</t>
-  </si>
-  <si>
-    <t>74.55 *</t>
-  </si>
-  <si>
-    <t>71.53 *</t>
-  </si>
-  <si>
-    <t>E50TE  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.55 *</t>
-  </si>
-  <si>
-    <t>72.22 *</t>
-  </si>
-  <si>
-    <t>75.37 *</t>
-  </si>
-  <si>
-    <t>77.83 *</t>
-  </si>
-  <si>
-    <t>56.75 *</t>
-  </si>
-  <si>
-    <t>E50TTE  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.18 </t>
-  </si>
-  <si>
-    <t>72.78 *</t>
-  </si>
-  <si>
-    <t>73.67 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.55 </t>
-  </si>
-  <si>
-    <t>58.2 *</t>
-  </si>
-  <si>
-    <t>FDF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.88 *</t>
-  </si>
-  <si>
-    <t>69.8 *</t>
-  </si>
-  <si>
-    <t>72.35 *</t>
-  </si>
-  <si>
-    <t>74.12 *</t>
-  </si>
-  <si>
-    <t>70.3 *</t>
-  </si>
-  <si>
-    <t>FPE  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4 </t>
-  </si>
-  <si>
-    <t>75.2 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.25 </t>
-  </si>
-  <si>
-    <t>FRC  CAF  AOF</t>
-  </si>
-  <si>
-    <t>70.42 *</t>
-  </si>
-  <si>
-    <t>70.73 *</t>
-  </si>
-  <si>
-    <t>71.57 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.62 </t>
-  </si>
-  <si>
-    <t>FTF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>72.15 *</t>
-  </si>
-  <si>
-    <t>72.87 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.65 </t>
-  </si>
-  <si>
-    <t>56.57 *</t>
-  </si>
-  <si>
-    <t>HUF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.17 *</t>
-  </si>
-  <si>
-    <t>73.27 *</t>
-  </si>
-  <si>
-    <t>72.92 *</t>
-  </si>
-  <si>
-    <t>51.15 *</t>
-  </si>
-  <si>
-    <t>INF  CAF  AOF</t>
+    <t xml:space="preserve">76.92 </t>
+  </si>
+  <si>
+    <t>54.18 *</t>
+  </si>
+  <si>
+    <t>59.88 *</t>
+  </si>
+  <si>
+    <t>78.57 *</t>
+  </si>
+  <si>
+    <t>64.0 *</t>
+  </si>
+  <si>
+    <t>AGF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.2 </t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.95 </t>
+  </si>
+  <si>
+    <t>79.78 *</t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9 </t>
+  </si>
+  <si>
+    <t>79.6 *</t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>77.1 *</t>
+  </si>
+  <si>
+    <t>76.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.5 </t>
+  </si>
+  <si>
+    <t>77.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75 </t>
+  </si>
+  <si>
+    <t>76.22 *</t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.65 </t>
+  </si>
+  <si>
+    <t>80.83 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.9 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.4 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.3 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF</t>
   </si>
   <si>
     <t xml:space="preserve">77.75 </t>
@@ -433,292 +379,289 @@
     <t xml:space="preserve">79.75 </t>
   </si>
   <si>
-    <t xml:space="preserve">79.73 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.65 </t>
-  </si>
-  <si>
-    <t>79.13 *</t>
-  </si>
-  <si>
-    <t>LOF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>74.53 *</t>
-  </si>
-  <si>
-    <t>72.45 *</t>
-  </si>
-  <si>
-    <t>73.95 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.42 </t>
-  </si>
-  <si>
-    <t>62.0 *</t>
-  </si>
-  <si>
-    <t>NOF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>74.13 *</t>
-  </si>
-  <si>
-    <t>75.62 *</t>
-  </si>
-  <si>
-    <t>75.07 *</t>
-  </si>
-  <si>
-    <t>79.53 *</t>
-  </si>
-  <si>
-    <t>71.62 *</t>
-  </si>
-  <si>
-    <t>NW  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.9 *</t>
-  </si>
-  <si>
-    <t>76.1 *</t>
-  </si>
-  <si>
-    <t>60.37 *</t>
-  </si>
-  <si>
-    <t>PNF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>70.0 *</t>
-  </si>
-  <si>
-    <t>73.05 *</t>
-  </si>
-  <si>
-    <t>77.15 *</t>
-  </si>
-  <si>
-    <t>64.7 *</t>
-  </si>
-  <si>
-    <t>PW  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.97 *</t>
-  </si>
-  <si>
-    <t>73.47 *</t>
-  </si>
-  <si>
-    <t>68.98 *</t>
-  </si>
-  <si>
-    <t>REF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.92 </t>
-  </si>
-  <si>
-    <t>62.45 *</t>
-  </si>
-  <si>
-    <t>SIF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>72.95 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.6 </t>
-  </si>
-  <si>
-    <t>75.15 *</t>
-  </si>
-  <si>
-    <t>71.3 *</t>
-  </si>
-  <si>
-    <t>SKF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>70.83 *</t>
-  </si>
-  <si>
-    <t>71.72 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.23 </t>
-  </si>
-  <si>
-    <t>53.05 *</t>
-  </si>
-  <si>
-    <t>SLF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.38 *</t>
-  </si>
-  <si>
-    <t>69.62 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.28 </t>
-  </si>
-  <si>
-    <t>52.03 *</t>
-  </si>
-  <si>
-    <t>SPE  CAF  AOF</t>
-  </si>
-  <si>
-    <t>70.05 *</t>
-  </si>
-  <si>
-    <t>72.2 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.92 </t>
-  </si>
-  <si>
-    <t>65.9 *</t>
-  </si>
-  <si>
-    <t>SPF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>69.78 *</t>
-  </si>
-  <si>
-    <t>71.15 *</t>
-  </si>
-  <si>
-    <t>75.87 *</t>
-  </si>
-  <si>
-    <t>61.57 *</t>
-  </si>
-  <si>
-    <t>SXF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.23 *</t>
-  </si>
-  <si>
-    <t>74.3 *</t>
-  </si>
-  <si>
-    <t>73.77 *</t>
-  </si>
-  <si>
-    <t>77.67 *</t>
-  </si>
-  <si>
-    <t>58.4 *</t>
-  </si>
-  <si>
-    <t>TE  CAF  AOF</t>
-  </si>
-  <si>
-    <t>69.47 *</t>
-  </si>
-  <si>
-    <t>71.8 *</t>
-  </si>
-  <si>
-    <t>69.85 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.03 </t>
-  </si>
-  <si>
-    <t>THF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6 </t>
-  </si>
-  <si>
-    <t>74.15 *</t>
-  </si>
-  <si>
-    <t>75.9 *</t>
-  </si>
-  <si>
-    <t>66.67 *</t>
-  </si>
-  <si>
-    <t>TPE  CAF  AOF</t>
-  </si>
-  <si>
-    <t>74.42 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.65 </t>
-  </si>
-  <si>
-    <t>VOF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>73.83 *</t>
-  </si>
-  <si>
-    <t>74.58 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.35 </t>
-  </si>
-  <si>
-    <t>50.47 *</t>
-  </si>
-  <si>
-    <t>WEF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>71.83 *</t>
-  </si>
-  <si>
-    <t>74.25 *</t>
-  </si>
-  <si>
-    <t>72.93 *</t>
-  </si>
-  <si>
-    <t>76.15 *</t>
-  </si>
-  <si>
-    <t>70.97 *</t>
-  </si>
-  <si>
-    <t>XTE  CAF  AOF</t>
-  </si>
-  <si>
-    <t>70.85 *</t>
-  </si>
-  <si>
-    <t>69.53 *</t>
-  </si>
-  <si>
-    <t>75.6 *</t>
-  </si>
-  <si>
-    <t>73.55 *</t>
+    <t xml:space="preserve">82.62 </t>
+  </si>
+  <si>
+    <t>79.65 *</t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.07 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1 </t>
+  </si>
+  <si>
+    <t>78.12 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.48 </t>
+  </si>
+  <si>
+    <t>78.38 *</t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6 </t>
+  </si>
+  <si>
+    <t>79.58 *</t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>78.3 *</t>
+  </si>
+  <si>
+    <t>76.35 *</t>
+  </si>
+  <si>
+    <t>78.37 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.72 </t>
+  </si>
+  <si>
+    <t>78.53 *</t>
+  </si>
+  <si>
+    <t>NW  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.08 </t>
+  </si>
+  <si>
+    <t>79.15 *</t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>76.87 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.35 </t>
+  </si>
+  <si>
+    <t>79.17 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.22 </t>
+  </si>
+  <si>
+    <t>78.4 *</t>
+  </si>
+  <si>
+    <t>PW  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8 </t>
+  </si>
+  <si>
+    <t>80.62 *</t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.25 </t>
+  </si>
+  <si>
+    <t>79.85 *</t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.5 </t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.45 </t>
+  </si>
+  <si>
+    <t>79.1 *</t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.45 </t>
+  </si>
+  <si>
+    <t>78.9 *</t>
+  </si>
+  <si>
+    <t>SPE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>77.78 *</t>
+  </si>
+  <si>
+    <t>78.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.73 </t>
+  </si>
+  <si>
+    <t>80.07 *</t>
+  </si>
+  <si>
+    <t>80.0 *</t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.55 </t>
+  </si>
+  <si>
+    <t>77.35 *</t>
+  </si>
+  <si>
+    <t>76.65 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.15 </t>
+  </si>
+  <si>
+    <t>SXF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t>78.5 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.02 </t>
+  </si>
+  <si>
+    <t>79.95 *</t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.82 </t>
+  </si>
+  <si>
+    <t>THF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.32 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.83 </t>
+  </si>
+  <si>
+    <t>VOF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.85 </t>
+  </si>
+  <si>
+    <t>81.4 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.15 </t>
+  </si>
+  <si>
+    <t>79.3 *</t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.33 </t>
+  </si>
+  <si>
+    <t>78.75 *</t>
+  </si>
+  <si>
+    <t>XTE  INF  CAF  AOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.27 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -924,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S72" totalsRowShown="0">
-  <autoFilter ref="A40:S72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S71" totalsRowShown="0">
+  <autoFilter ref="A40:S71"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1236,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1244,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1344,7 +1287,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1352,7 +1295,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1363,7 +1306,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1494,71 +1437,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="O40" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="Q40" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="R40" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="S40" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1591,12 +1534,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>76.45</v>
+        <v>78.56999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1629,12 +1572,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>77.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1667,12 +1610,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>79.7</v>
+        <v>82.95</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1705,12 +1648,12 @@
         <v>84</v>
       </c>
       <c r="S44" s="9">
-        <v>80.28</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>85</v>
@@ -1731,521 +1674,521 @@
         <v>87</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O45" s="10" t="s">
         <v>88</v>
       </c>
       <c r="P45" s="9" t="s">
         <v>86</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S45" s="9">
-        <v>79.03</v>
+        <v>84.73</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="9">
+        <v>5</v>
+      </c>
+      <c r="L46" s="9">
+        <v>20</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="9">
-        <v>5</v>
-      </c>
-      <c r="L46" s="9">
-        <v>20</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="Q46" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="S46" s="9">
-        <v>74.95</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5</v>
+      </c>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="9">
-        <v>5</v>
-      </c>
-      <c r="L47" s="9">
-        <v>20</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O47" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="S47" s="9">
-        <v>77.83</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="9">
-        <v>5</v>
-      </c>
-      <c r="L48" s="9">
-        <v>20</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="Q48" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="S48" s="9">
-        <v>77.55</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="9">
+        <v>5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="9">
-        <v>5</v>
-      </c>
-      <c r="L49" s="9">
-        <v>20</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="S49" s="9">
-        <v>74.12</v>
+        <v>80.98</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="9">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="9">
-        <v>5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>20</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="Q50" s="9" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="S50" s="9">
-        <v>76.25</v>
+        <v>80.84999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="9">
-        <v>5</v>
-      </c>
-      <c r="L51" s="9">
-        <v>20</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="O51" s="9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P51" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q51" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="S51" s="9">
-        <v>80.62</v>
+        <v>82.62</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="9">
+        <v>5</v>
+      </c>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="9">
-        <v>5</v>
-      </c>
-      <c r="L52" s="9">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="O52" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P52" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Q52" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="S52" s="9">
-        <v>76.65000000000001</v>
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="9">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="9">
-        <v>5</v>
-      </c>
-      <c r="L53" s="9">
-        <v>20</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="O53" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q53" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q53" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="S53" s="9">
-        <v>79.7</v>
+        <v>82.48</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="9">
+        <v>5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54" s="9">
-        <v>5</v>
-      </c>
-      <c r="L54" s="9">
-        <v>20</v>
-      </c>
-      <c r="M54" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="O54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P54" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q54" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Q54" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="S54" s="9">
-        <v>82.65000000000001</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="9">
+        <v>5</v>
+      </c>
+      <c r="L55" s="9">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N55" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" s="9">
-        <v>5</v>
-      </c>
-      <c r="L55" s="9">
-        <v>20</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="O55" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P55" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="Q55" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="S55" s="9">
-        <v>81.42</v>
+        <v>82.72</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5</v>
+      </c>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q56" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="9">
-        <v>5</v>
-      </c>
-      <c r="L56" s="9">
-        <v>20</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="S56" s="9">
-        <v>79.53</v>
+        <v>83.08</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="9">
+        <v>5</v>
+      </c>
+      <c r="L57" s="9">
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q57" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="9">
-        <v>5</v>
-      </c>
-      <c r="L57" s="9">
-        <v>20</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="S57" s="9">
-        <v>76.09999999999999</v>
+        <v>81.22</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="9">
+        <v>5</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q58" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="9">
-        <v>5</v>
-      </c>
-      <c r="L58" s="9">
-        <v>20</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P58" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="S58" s="9">
-        <v>77.15000000000001</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>60</v>
@@ -2260,30 +2203,30 @@
         <v>20</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S59" s="9">
-        <v>73.47</v>
+        <v>82.25</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>60</v>
@@ -2297,183 +2240,183 @@
       <c r="L60" s="9">
         <v>20</v>
       </c>
-      <c r="M60" s="9" t="s">
-        <v>123</v>
+      <c r="M60" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>122</v>
+        <v>165</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S60" s="9">
-        <v>78.92</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="9">
+        <v>5</v>
+      </c>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q61" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="9">
-        <v>5</v>
-      </c>
-      <c r="L61" s="9">
-        <v>20</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q61" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="S61" s="9">
-        <v>76.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="9">
+        <v>5</v>
+      </c>
+      <c r="L62" s="9">
+        <v>20</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q62" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" s="9">
-        <v>5</v>
-      </c>
-      <c r="L62" s="9">
-        <v>20</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="S62" s="9">
-        <v>80.23</v>
+        <v>82.45</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="9">
+        <v>5</v>
+      </c>
+      <c r="L63" s="9">
+        <v>20</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="9">
-        <v>5</v>
-      </c>
-      <c r="L63" s="9">
-        <v>20</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="O63" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q63" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O63" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P63" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="S63" s="9">
-        <v>79.28</v>
+        <v>80.06999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="F64" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="9">
+        <v>5</v>
+      </c>
+      <c r="L64" s="9">
+        <v>20</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O64" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="9">
-        <v>5</v>
-      </c>
-      <c r="L64" s="9">
-        <v>20</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="P64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q64" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Q64" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="S64" s="9">
-        <v>76.92</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>60</v>
@@ -2488,30 +2431,30 @@
         <v>20</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S65" s="9">
-        <v>75.87</v>
+        <v>82.45</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>60</v>
@@ -2526,30 +2469,30 @@
         <v>20</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="S66" s="9">
-        <v>77.67</v>
+        <v>80.81999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>60</v>
@@ -2564,30 +2507,30 @@
         <v>20</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="S67" s="9">
-        <v>78.03</v>
+        <v>85.31999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="8">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>60</v>
@@ -2602,30 +2545,30 @@
         <v>20</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q68" s="9" t="s">
-        <v>212</v>
+        <v>201</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="S68" s="9">
-        <v>77.83</v>
+        <v>81.83</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>60</v>
@@ -2640,30 +2583,30 @@
         <v>20</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="S69" s="9">
-        <v>81.75</v>
+        <v>84.15000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="8">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>60</v>
@@ -2678,30 +2621,30 @@
         <v>20</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="S70" s="9">
-        <v>81.34999999999999</v>
+        <v>81.03</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="8">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>60</v>
@@ -2716,60 +2659,22 @@
         <v>20</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="S71" s="9">
-        <v>76.15000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
-      <c r="A72" s="8">
-        <v>110</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K72" s="9">
-        <v>5</v>
-      </c>
-      <c r="L72" s="9">
-        <v>20</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="N72" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O72" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q72" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="S72" s="9">
-        <v>75.59999999999999</v>
+        <v>79.78</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="240">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 21/05/2020 18:44:22</t>
+    <t>Issue date: 21/05/2020 20:10:40</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF</t>
+    <t>ACF  INF  CAF  AOF  THF</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,466 +202,469 @@
     <t>NONE</t>
   </si>
   <si>
-    <t xml:space="preserve">76.92 </t>
-  </si>
-  <si>
-    <t>54.18 *</t>
-  </si>
-  <si>
-    <t>59.88 *</t>
-  </si>
-  <si>
-    <t>78.57 *</t>
-  </si>
-  <si>
-    <t>64.0 *</t>
-  </si>
-  <si>
-    <t>AGF  INF  CAF  AOF</t>
+    <t>76.88 *</t>
+  </si>
+  <si>
+    <t>54.4 *</t>
+  </si>
+  <si>
+    <t>62.28 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.12 </t>
+  </si>
+  <si>
+    <t>64.52 *</t>
+  </si>
+  <si>
+    <t>AGF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.58 </t>
+  </si>
+  <si>
+    <t>78.18 *</t>
+  </si>
+  <si>
+    <t>77.8 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.7 </t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.37 </t>
+  </si>
+  <si>
+    <t>78.33 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.88 </t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75 </t>
+  </si>
+  <si>
+    <t>79.78 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.6 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF</t>
   </si>
   <si>
     <t xml:space="preserve">78.85 </t>
   </si>
   <si>
-    <t xml:space="preserve">81.5 </t>
+    <t xml:space="preserve">75.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.42 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.93 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.28 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.2 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.47 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.97 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.9 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5 </t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.15 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.22 </t>
+  </si>
+  <si>
+    <t>NW  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.47 </t>
   </si>
   <si>
     <t xml:space="preserve">80.45 </t>
   </si>
   <si>
-    <t xml:space="preserve">83.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.2 </t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.62 </t>
+    <t>PNF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.5 </t>
+  </si>
+  <si>
+    <t>PW  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.45 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.92 </t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.63 </t>
+  </si>
+  <si>
+    <t>81.52 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.12 </t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.25 </t>
+  </si>
+  <si>
+    <t>79.05 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.45 </t>
+  </si>
+  <si>
+    <t>SPE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t>79.52 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.32 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.45 </t>
+  </si>
+  <si>
+    <t>77.03 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.67 </t>
+  </si>
+  <si>
+    <t>SXF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.05 </t>
+  </si>
+  <si>
+    <t>79.15 *</t>
+  </si>
+  <si>
+    <t>78.35 *</t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF</t>
   </si>
   <si>
     <t xml:space="preserve">78.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">82.95 </t>
-  </si>
-  <si>
-    <t>79.78 *</t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9 </t>
-  </si>
-  <si>
-    <t>79.6 *</t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.6 </t>
+    <t>76.25 *</t>
+  </si>
+  <si>
+    <t>76.45 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.33 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.75 </t>
+  </si>
+  <si>
+    <t>80.42 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8 </t>
   </si>
   <si>
     <t xml:space="preserve">84.73 </t>
   </si>
   <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>77.1 *</t>
-  </si>
-  <si>
-    <t>76.95 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.5 </t>
-  </si>
-  <si>
-    <t>77.62 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2 </t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75 </t>
-  </si>
-  <si>
-    <t>76.22 *</t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.65 </t>
-  </si>
-  <si>
-    <t>80.83 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.9 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.4 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.3 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.62 </t>
-  </si>
-  <si>
-    <t>79.65 *</t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.07 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1 </t>
-  </si>
-  <si>
-    <t>78.12 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.48 </t>
-  </si>
-  <si>
-    <t>78.38 *</t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6 </t>
-  </si>
-  <si>
-    <t>79.58 *</t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>78.3 *</t>
-  </si>
-  <si>
-    <t>76.35 *</t>
-  </si>
-  <si>
-    <t>78.37 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.72 </t>
-  </si>
-  <si>
-    <t>78.53 *</t>
-  </si>
-  <si>
-    <t>NW  INF  CAF  AOF</t>
+    <t>VOF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.35 </t>
+  </si>
+  <si>
+    <t>79.9 *</t>
+  </si>
+  <si>
+    <t>80.87 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.02 </t>
   </si>
   <si>
     <t xml:space="preserve">79.78 </t>
   </si>
   <si>
-    <t xml:space="preserve">79.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.08 </t>
-  </si>
-  <si>
-    <t>79.15 *</t>
-  </si>
-  <si>
-    <t>PNF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>76.87 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.35 </t>
-  </si>
-  <si>
-    <t>79.17 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.22 </t>
-  </si>
-  <si>
-    <t>78.4 *</t>
-  </si>
-  <si>
-    <t>PW  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8 </t>
-  </si>
-  <si>
-    <t>80.62 *</t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.25 </t>
-  </si>
-  <si>
-    <t>79.85 *</t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.5 </t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.45 </t>
-  </si>
-  <si>
-    <t>79.1 *</t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.45 </t>
-  </si>
-  <si>
-    <t>78.9 *</t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>77.78 *</t>
-  </si>
-  <si>
-    <t>78.62 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.73 </t>
-  </si>
-  <si>
-    <t>80.07 *</t>
-  </si>
-  <si>
-    <t>80.0 *</t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.55 </t>
-  </si>
-  <si>
-    <t>77.35 *</t>
-  </si>
-  <si>
-    <t>76.65 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.15 </t>
-  </si>
-  <si>
-    <t>SXF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t>78.5 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.02 </t>
-  </si>
-  <si>
-    <t>79.95 *</t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.82 </t>
-  </si>
-  <si>
-    <t>THF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.32 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.83 </t>
-  </si>
-  <si>
-    <t>VOF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.85 </t>
-  </si>
-  <si>
-    <t>81.4 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.15 </t>
-  </si>
-  <si>
-    <t>79.3 *</t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.33 </t>
-  </si>
-  <si>
-    <t>78.75 *</t>
-  </si>
-  <si>
-    <t>XTE  INF  CAF  AOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.27 </t>
+    <t xml:space="preserve">79.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0 </t>
+  </si>
+  <si>
+    <t>XTE  INF  CAF  AOF  THF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.78 </t>
+  </si>
+  <si>
+    <t>79.08 *</t>
+  </si>
+  <si>
+    <t>77.33 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.75 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -867,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S71" totalsRowShown="0">
-  <autoFilter ref="A40:S71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S70" totalsRowShown="0">
+  <autoFilter ref="A40:S70"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1187,7 +1190,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1287,7 +1290,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1295,7 +1298,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1306,7 +1309,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1437,71 +1440,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1534,12 +1537,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>78.56999999999999</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1572,12 +1575,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>83</v>
+        <v>84.55</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1610,12 +1613,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>82.95</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1645,53 +1648,53 @@
         <v>80</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="S44" s="9">
-        <v>82.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="9">
+        <v>5</v>
+      </c>
+      <c r="L45" s="9">
+        <v>20</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K45" s="9">
-        <v>5</v>
-      </c>
-      <c r="L45" s="9">
-        <v>20</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>89</v>
       </c>
       <c r="S45" s="9">
-        <v>84.73</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>90</v>
@@ -1721,170 +1724,170 @@
         <v>91</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S46" s="9">
-        <v>80.2</v>
+        <v>83.15000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5</v>
+      </c>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="9">
-        <v>5</v>
-      </c>
-      <c r="L47" s="9">
-        <v>20</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="O47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="S47" s="9">
-        <v>82.09999999999999</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="9">
-        <v>5</v>
-      </c>
-      <c r="L48" s="9">
-        <v>20</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="Q48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="O48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="S48" s="9">
-        <v>81.65000000000001</v>
+        <v>83.52</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="9">
+        <v>5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="9">
-        <v>5</v>
-      </c>
-      <c r="L49" s="9">
-        <v>20</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="S49" s="9">
-        <v>80.98</v>
+        <v>84.25</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="9">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="9">
-        <v>5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>20</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="Q50" s="9" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="S50" s="9">
-        <v>80.84999999999999</v>
+        <v>82.98</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>60</v>
@@ -1899,30 +1902,30 @@
         <v>20</v>
       </c>
       <c r="M51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="Q51" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S51" s="9">
-        <v>82.62</v>
+        <v>86.12</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>60</v>
@@ -1937,30 +1940,30 @@
         <v>20</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="N52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="O52" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="P52" s="9" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S52" s="9">
-        <v>80.68000000000001</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>60</v>
@@ -1975,68 +1978,68 @@
         <v>20</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="N53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="O53" s="9" t="s">
+      <c r="P53" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P53" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="Q53" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S53" s="9">
-        <v>82.48</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
+        <v>212</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="9">
+        <v>5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54" s="9">
-        <v>5</v>
-      </c>
-      <c r="L54" s="9">
-        <v>20</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="O54" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P54" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="Q54" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S54" s="9">
-        <v>82.59999999999999</v>
+        <v>86.03</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>60</v>
@@ -2051,30 +2054,30 @@
         <v>20</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O55" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="P55" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="Q55" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="S55" s="9">
-        <v>82.72</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>60</v>
@@ -2089,27 +2092,27 @@
         <v>20</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>147</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>148</v>
       </c>
       <c r="S56" s="9">
-        <v>83.08</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>149</v>
@@ -2142,12 +2145,12 @@
         <v>154</v>
       </c>
       <c r="S57" s="9">
-        <v>81.22</v>
+        <v>84.05</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>155</v>
@@ -2165,65 +2168,65 @@
         <v>20</v>
       </c>
       <c r="M58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P58" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N58" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="O58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="P58" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="Q58" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S58" s="9">
-        <v>81.8</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="9">
+        <v>5</v>
+      </c>
+      <c r="L59" s="9">
+        <v>20</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q59" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="9">
-        <v>5</v>
-      </c>
-      <c r="L59" s="9">
-        <v>20</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q59" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="S59" s="9">
-        <v>82.25</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>162</v>
@@ -2240,31 +2243,31 @@
       <c r="L60" s="9">
         <v>20</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" s="9" t="s">
         <v>164</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="O60" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P60" s="10" t="s">
+      <c r="P60" s="9" t="s">
         <v>163</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S60" s="9">
-        <v>83.8</v>
+        <v>85.03</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>60</v>
@@ -2282,27 +2285,27 @@
         <v>169</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S61" s="9">
-        <v>82.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>60</v>
@@ -2317,7 +2320,7 @@
         <v>20</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="N62" s="9" t="s">
         <v>175</v>
@@ -2326,211 +2329,211 @@
         <v>174</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S62" s="9">
-        <v>82.45</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="9">
+        <v>5</v>
+      </c>
+      <c r="L63" s="9">
+        <v>20</v>
+      </c>
+      <c r="M63" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="9">
-        <v>5</v>
-      </c>
-      <c r="L63" s="9">
-        <v>20</v>
-      </c>
-      <c r="M63" s="9" t="s">
+      <c r="N63" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="O63" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="S63" s="9">
-        <v>80.06999999999999</v>
+        <v>84.31999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F64" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="9">
+        <v>5</v>
+      </c>
+      <c r="L64" s="9">
+        <v>20</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O64" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="9">
-        <v>5</v>
-      </c>
-      <c r="L64" s="9">
-        <v>20</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="P64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q64" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="S64" s="9">
-        <v>81.40000000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="9">
+        <v>5</v>
+      </c>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="9">
-        <v>5</v>
-      </c>
-      <c r="L65" s="9">
-        <v>20</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="N65" s="9" t="s">
         <v>175</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="S65" s="9">
-        <v>82.45</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="F66" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="9">
+        <v>5</v>
+      </c>
+      <c r="L66" s="9">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K66" s="9">
-        <v>5</v>
-      </c>
-      <c r="L66" s="9">
-        <v>20</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="N66" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="O66" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q66" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="P66" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="S66" s="9">
-        <v>80.81999999999999</v>
+        <v>85.22</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8">
+        <v>231</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="9">
+        <v>5</v>
+      </c>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="O67" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="P67" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="9">
-        <v>5</v>
-      </c>
-      <c r="L67" s="9">
-        <v>20</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q67" s="9" t="s">
-        <v>70</v>
+      <c r="Q67" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="S67" s="9">
-        <v>85.31999999999999</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="8">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>60</v>
@@ -2545,30 +2548,30 @@
         <v>20</v>
       </c>
       <c r="M68" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="P68" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="N68" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q68" s="10" t="s">
-        <v>203</v>
+      <c r="Q68" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="S68" s="9">
-        <v>81.83</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>60</v>
@@ -2583,30 +2586,30 @@
         <v>20</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="S69" s="9">
-        <v>84.15000000000001</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="8">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>60</v>
@@ -2621,60 +2624,22 @@
         <v>20</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="S70" s="9">
-        <v>81.03</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
-      <c r="A71" s="8">
-        <v>192</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K71" s="9">
-        <v>5</v>
-      </c>
-      <c r="L71" s="9">
-        <v>20</v>
-      </c>
-      <c r="M71" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N71" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O71" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="S71" s="9">
-        <v>79.78</v>
+        <v>82.75</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="233">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 21/05/2020 20:10:40</t>
+    <t>Issue date: 21/05/2020 23:16:11</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF  THF</t>
+    <t>ACF  INF  CAF  AOF  THF  VOF</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,469 +202,448 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>76.88 *</t>
-  </si>
-  <si>
-    <t>54.4 *</t>
-  </si>
-  <si>
-    <t>62.28 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.12 </t>
-  </si>
-  <si>
-    <t>64.52 *</t>
-  </si>
-  <si>
-    <t>AGF  INF  CAF  AOF  THF</t>
+    <t>77.98 *</t>
+  </si>
+  <si>
+    <t>53.7 *</t>
+  </si>
+  <si>
+    <t>63.22 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.68 </t>
+  </si>
+  <si>
+    <t>66.02 *</t>
+  </si>
+  <si>
+    <t>AGF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.12 </t>
+  </si>
+  <si>
+    <t>77.9 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.35 </t>
+  </si>
+  <si>
+    <t>77.3 *</t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.85 </t>
+  </si>
+  <si>
+    <t>80.52 *</t>
+  </si>
+  <si>
+    <t>80.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.15 </t>
+  </si>
+  <si>
+    <t>79.38 *</t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.65 </t>
+  </si>
+  <si>
+    <t>80.73 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.8 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.55 </t>
+  </si>
+  <si>
+    <t>75.4 *</t>
+  </si>
+  <si>
+    <t>78.4 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.68 </t>
+  </si>
+  <si>
+    <t>81.1 *</t>
+  </si>
+  <si>
+    <t>81.67 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.82 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.47 </t>
+  </si>
+  <si>
+    <t>80.05 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.68 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.65 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>79.9 *</t>
+  </si>
+  <si>
+    <t>80.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.25 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.33 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.58 </t>
+  </si>
+  <si>
+    <t>79.55 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1 </t>
+  </si>
+  <si>
+    <t>78.75 *</t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>80.2 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.1 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.83 </t>
+  </si>
+  <si>
+    <t>NW  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6 </t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6 </t>
+  </si>
+  <si>
+    <t>80.7 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.88 </t>
+  </si>
+  <si>
+    <t>PW  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>80.8 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>81.0 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.1 </t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>81.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.65 </t>
+  </si>
+  <si>
+    <t>79.62 *</t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.52 </t>
+  </si>
+  <si>
+    <t>80.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.65 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t>79.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.65 </t>
+  </si>
+  <si>
+    <t>SPE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5 </t>
+  </si>
+  <si>
+    <t>80.55 *</t>
+  </si>
+  <si>
+    <t>79.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.45 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.3 </t>
+  </si>
+  <si>
+    <t>80.25 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.85 </t>
+  </si>
+  <si>
+    <t>SXF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.22 </t>
+  </si>
+  <si>
+    <t>79.0 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.58 </t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1 </t>
+  </si>
+  <si>
+    <t>74.9 *</t>
+  </si>
+  <si>
+    <t>75.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.67 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.82 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF  VOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.93 </t>
+  </si>
+  <si>
+    <t>80.37 *</t>
+  </si>
+  <si>
+    <t>80.9 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.75 </t>
+  </si>
+  <si>
+    <t>XTE  INF  CAF  AOF  THF  VOF</t>
   </si>
   <si>
     <t xml:space="preserve">80.58 </t>
   </si>
   <si>
-    <t>78.18 *</t>
-  </si>
-  <si>
-    <t>77.8 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.7 </t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.37 </t>
-  </si>
-  <si>
-    <t>78.33 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.88 </t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75 </t>
-  </si>
-  <si>
-    <t>79.78 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.6 </t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.42 </t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.93 </t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.28 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.2 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.73 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.47 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.97 </t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.9 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.5 </t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.15 </t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.22 </t>
-  </si>
-  <si>
-    <t>NW  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.45 </t>
-  </si>
-  <si>
-    <t>PNF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.5 </t>
-  </si>
-  <si>
-    <t>PW  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.45 </t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.92 </t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.63 </t>
-  </si>
-  <si>
-    <t>81.52 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.12 </t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0 </t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.25 </t>
-  </si>
-  <si>
-    <t>79.05 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.45 </t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t>79.52 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.32 </t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.45 </t>
-  </si>
-  <si>
-    <t>77.03 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.67 </t>
-  </si>
-  <si>
-    <t>SXF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.05 </t>
-  </si>
-  <si>
-    <t>79.15 *</t>
-  </si>
-  <si>
-    <t>78.35 *</t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2 </t>
-  </si>
-  <si>
-    <t>76.25 *</t>
-  </si>
-  <si>
-    <t>76.45 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.33 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.75 </t>
-  </si>
-  <si>
-    <t>80.42 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.73 </t>
-  </si>
-  <si>
-    <t>VOF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.35 </t>
-  </si>
-  <si>
-    <t>79.9 *</t>
-  </si>
-  <si>
-    <t>80.87 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6 </t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0 </t>
-  </si>
-  <si>
-    <t>XTE  INF  CAF  AOF  THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.78 </t>
-  </si>
-  <si>
-    <t>79.08 *</t>
-  </si>
-  <si>
-    <t>77.33 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.75 </t>
+    <t xml:space="preserve">79.27 </t>
+  </si>
+  <si>
+    <t>80.15 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.47 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -870,8 +849,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S70" totalsRowShown="0">
-  <autoFilter ref="A40:S70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S69" totalsRowShown="0">
+  <autoFilter ref="A40:S69"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1182,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1190,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1290,7 +1269,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1298,7 +1277,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1309,7 +1288,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1440,71 +1419,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" t="s">
         <v>221</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" t="s">
-        <v>228</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" t="s">
+        <v>225</v>
+      </c>
+      <c r="N40" t="s">
+        <v>226</v>
+      </c>
+      <c r="O40" t="s">
+        <v>227</v>
+      </c>
+      <c r="P40" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q40" t="s">
         <v>229</v>
       </c>
-      <c r="K40" t="s">
+      <c r="R40" t="s">
         <v>230</v>
       </c>
-      <c r="L40" t="s">
+      <c r="S40" t="s">
         <v>231</v>
-      </c>
-      <c r="M40" t="s">
-        <v>232</v>
-      </c>
-      <c r="N40" t="s">
-        <v>233</v>
-      </c>
-      <c r="O40" t="s">
-        <v>234</v>
-      </c>
-      <c r="P40" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>236</v>
-      </c>
-      <c r="R40" t="s">
-        <v>237</v>
-      </c>
-      <c r="S40" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1537,12 +1516,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>82.12</v>
+        <v>85.68000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1575,12 +1554,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>84.55</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1613,12 +1592,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>85.52</v>
+        <v>86.15000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1648,18 +1627,18 @@
         <v>80</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="S44" s="9">
-        <v>85.59999999999999</v>
+        <v>85.97</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>60</v>
@@ -1673,31 +1652,31 @@
       <c r="L45" s="9">
         <v>20</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="Q45" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S45" s="9">
-        <v>86.09999999999999</v>
+        <v>86.18000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>60</v>
@@ -1712,30 +1691,30 @@
         <v>20</v>
       </c>
       <c r="M46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="Q46" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="S46" s="9">
-        <v>83.15000000000001</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>60</v>
@@ -1750,30 +1729,30 @@
         <v>20</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P47" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="Q47" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S47" s="9">
-        <v>85.3</v>
+        <v>86.22</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>60</v>
@@ -1788,30 +1767,30 @@
         <v>20</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="P48" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="Q48" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S48" s="9">
-        <v>83.52</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>60</v>
@@ -1826,30 +1805,30 @@
         <v>20</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="P49" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="Q49" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="S49" s="9">
-        <v>84.25</v>
+        <v>83.68000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>60</v>
@@ -1864,30 +1843,30 @@
         <v>20</v>
       </c>
       <c r="M50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q50" s="9" t="s">
-        <v>118</v>
+      <c r="Q50" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="S50" s="9">
-        <v>82.98</v>
+        <v>85.65000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>60</v>
@@ -1911,18 +1890,18 @@
         <v>122</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="Q51" s="9" t="s">
         <v>124</v>
       </c>
       <c r="S51" s="9">
-        <v>86.12</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>125</v>
@@ -1940,30 +1919,30 @@
         <v>20</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P52" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="Q52" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S52" s="9">
-        <v>83.45</v>
+        <v>84.93000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>60</v>
@@ -1978,30 +1957,30 @@
         <v>20</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="N53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P53" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="O53" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="Q53" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S53" s="9">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>60</v>
@@ -2016,30 +1995,30 @@
         <v>20</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S54" s="9">
-        <v>86.03</v>
+        <v>86.2</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>60</v>
@@ -2054,144 +2033,144 @@
         <v>20</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="Q55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="O55" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q55" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="S55" s="9">
-        <v>85.7</v>
+        <v>85.55</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5</v>
+      </c>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N56" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="9">
-        <v>5</v>
-      </c>
-      <c r="L56" s="9">
-        <v>20</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="O56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O56" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="S56" s="9">
-        <v>85.47</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>287</v>
+        <v>354</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="9">
+        <v>5</v>
+      </c>
+      <c r="L57" s="9">
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P57" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="9">
-        <v>5</v>
-      </c>
-      <c r="L57" s="9">
-        <v>20</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="N57" s="9" t="s">
+      <c r="Q57" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O57" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="S57" s="9">
-        <v>84.05</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="9">
+        <v>5</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O58" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I58" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="9">
-        <v>5</v>
-      </c>
-      <c r="L58" s="9">
-        <v>20</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O58" s="9" t="s">
+      <c r="P58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="P58" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q58" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="S58" s="9">
-        <v>84.75</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>60</v>
@@ -2209,24 +2188,24 @@
         <v>121</v>
       </c>
       <c r="N59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q59" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O59" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q59" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="S59" s="9">
-        <v>84.92</v>
+        <v>85.73</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>162</v>
@@ -2244,402 +2223,364 @@
         <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O60" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O60" s="9" t="s">
+      <c r="P60" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P60" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="S60" s="9">
-        <v>85.03</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="9">
+        <v>5</v>
+      </c>
+      <c r="L61" s="9">
+        <v>20</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="9">
-        <v>5</v>
-      </c>
-      <c r="L61" s="9">
-        <v>20</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="P61" s="9" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="S61" s="9">
-        <v>85.40000000000001</v>
+        <v>86.65000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="9">
+        <v>5</v>
+      </c>
+      <c r="L62" s="9">
+        <v>20</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q62" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" s="9">
-        <v>5</v>
-      </c>
-      <c r="L62" s="9">
-        <v>20</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q62" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="S62" s="9">
-        <v>85.45</v>
+        <v>85.73</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="9">
+        <v>5</v>
+      </c>
+      <c r="L63" s="9">
+        <v>20</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O63" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="9">
-        <v>5</v>
-      </c>
-      <c r="L63" s="9">
-        <v>20</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N63" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="O63" s="9" t="s">
+      <c r="P63" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q63" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="P63" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="S63" s="9">
-        <v>84.31999999999999</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="F64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" s="9">
+        <v>5</v>
+      </c>
+      <c r="L64" s="9">
+        <v>20</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P64" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="9">
-        <v>5</v>
-      </c>
-      <c r="L64" s="9">
-        <v>20</v>
-      </c>
-      <c r="M64" s="9" t="s">
+      <c r="Q64" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="S64" s="9">
-        <v>84</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K65" s="9">
+        <v>5</v>
+      </c>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="9">
-        <v>5</v>
-      </c>
-      <c r="L65" s="9">
-        <v>20</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N65" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="O65" s="9" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="P65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q65" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Q65" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="S65" s="9">
-        <v>85.45</v>
+        <v>85.67</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="F66" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K66" s="9">
+        <v>5</v>
+      </c>
+      <c r="L66" s="9">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I66" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K66" s="9">
-        <v>5</v>
-      </c>
-      <c r="L66" s="9">
-        <v>20</v>
-      </c>
-      <c r="M66" s="9" t="s">
+      <c r="N66" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="N66" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="O66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q66" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="P66" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="S66" s="9">
-        <v>85.22</v>
+        <v>85.28</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="F67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="9">
+        <v>5</v>
+      </c>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="9">
-        <v>5</v>
-      </c>
-      <c r="L67" s="9">
-        <v>20</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="N67" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O67" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q67" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="P67" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q67" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="S67" s="9">
-        <v>84.8</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="9">
+        <v>5</v>
+      </c>
+      <c r="L68" s="9">
+        <v>20</v>
+      </c>
+      <c r="M68" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="9">
-        <v>5</v>
-      </c>
-      <c r="L68" s="9">
-        <v>20</v>
-      </c>
-      <c r="M68" s="9" t="s">
+      <c r="N68" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N68" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="O68" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="S68" s="9">
-        <v>86.2</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="8">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="F69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" s="9">
+        <v>5</v>
+      </c>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="O69" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="9">
-        <v>5</v>
-      </c>
-      <c r="L69" s="9">
-        <v>20</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="P69" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q69" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="N69" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q69" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="S69" s="9">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="8">
-        <v>266</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K70" s="9">
-        <v>5</v>
-      </c>
-      <c r="L70" s="9">
-        <v>20</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="O70" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="P70" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q70" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="S70" s="9">
-        <v>82.75</v>
+        <v>83.47</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="237">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 21/05/2020 23:16:11</t>
+    <t>Issue date: 22/05/2020 18:53:54</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF  THF  VOF</t>
+    <t>ACF  INF  CAF  AOF  THF  VOF  NW</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,22 +202,22 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>77.98 *</t>
-  </si>
-  <si>
-    <t>53.7 *</t>
-  </si>
-  <si>
-    <t>63.22 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.68 </t>
+    <t>76.33 *</t>
+  </si>
+  <si>
+    <t>53.97 *</t>
+  </si>
+  <si>
+    <t>59.25 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.12 </t>
   </si>
   <si>
     <t>66.02 *</t>
   </si>
   <si>
-    <t>AGF  INF  CAF  AOF  THF  VOF</t>
+    <t>AGF  INF  CAF  AOF  THF  VOF  NW</t>
   </si>
   <si>
     <t xml:space="preserve">79.35 </t>
@@ -226,16 +226,16 @@
     <t xml:space="preserve">79.12 </t>
   </si>
   <si>
-    <t>77.9 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.35 </t>
-  </si>
-  <si>
-    <t>77.3 *</t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF  THF  VOF</t>
+    <t xml:space="preserve">78.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.93 </t>
+  </si>
+  <si>
+    <t>77.32 *</t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF  VOF  NW</t>
   </si>
   <si>
     <t xml:space="preserve">78.85 </t>
@@ -244,394 +244,406 @@
     <t>80.52 *</t>
   </si>
   <si>
+    <t>80.67 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.88 </t>
+  </si>
+  <si>
+    <t>79.38 *</t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.65 </t>
+  </si>
+  <si>
+    <t>80.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.75 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.78 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.55 </t>
+  </si>
+  <si>
+    <t>75.4 *</t>
+  </si>
+  <si>
+    <t>78.17 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.27 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7 </t>
+  </si>
+  <si>
+    <t>81.12 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.82 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.47 </t>
+  </si>
+  <si>
+    <t>80.05 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.62 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t>79.9 *</t>
+  </si>
+  <si>
+    <t>80.93 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.25 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.33 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.55 </t>
+  </si>
+  <si>
+    <t>79.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.65 </t>
+  </si>
+  <si>
+    <t>78.75 *</t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.23 </t>
+  </si>
+  <si>
+    <t>80.2 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.1 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.55 </t>
+  </si>
+  <si>
+    <t>81.08 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.32 </t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.57 </t>
+  </si>
+  <si>
+    <t>80.9 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.88 </t>
+  </si>
+  <si>
+    <t>PW  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
     <t>80.62 *</t>
   </si>
   <si>
-    <t xml:space="preserve">86.15 </t>
-  </si>
-  <si>
-    <t>79.38 *</t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.65 </t>
-  </si>
-  <si>
-    <t>80.73 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.8 </t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.55 </t>
-  </si>
-  <si>
-    <t>75.4 *</t>
-  </si>
-  <si>
-    <t>78.4 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7 </t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3 </t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.68 </t>
+    <t xml:space="preserve">87.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t>80.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.1 </t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t>81.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.08 </t>
+  </si>
+  <si>
+    <t>79.62 *</t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.52 </t>
   </si>
   <si>
     <t>81.1 *</t>
   </si>
   <si>
-    <t>81.67 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.82 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.47 </t>
-  </si>
-  <si>
-    <t>80.05 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.68 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.65 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>79.9 *</t>
-  </si>
-  <si>
-    <t>80.85 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.25 </t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.33 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.58 </t>
-  </si>
-  <si>
-    <t>79.55 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1 </t>
-  </si>
-  <si>
-    <t>78.75 *</t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>80.2 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.1 </t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.83 </t>
-  </si>
-  <si>
-    <t>NW  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.88 </t>
+    <t>80.83 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.75 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t>79.95 *</t>
+  </si>
+  <si>
+    <t>80.03 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.38 </t>
   </si>
   <si>
     <t xml:space="preserve">79.6 </t>
   </si>
   <si>
-    <t>PNF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6 </t>
-  </si>
-  <si>
-    <t>80.7 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.88 </t>
-  </si>
-  <si>
-    <t>PW  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>80.8 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6 </t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>81.0 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.73 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.1 </t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>81.6 *</t>
+    <t>SPE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5 </t>
+  </si>
+  <si>
+    <t>80.55 *</t>
+  </si>
+  <si>
+    <t>79.53 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.43 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.3 </t>
+  </si>
+  <si>
+    <t>80.25 *</t>
+  </si>
+  <si>
+    <t>80.23 *</t>
+  </si>
+  <si>
+    <t>SXF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.22 </t>
+  </si>
+  <si>
+    <t>79.03 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.58 </t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1 </t>
+  </si>
+  <si>
+    <t>74.9 *</t>
+  </si>
+  <si>
+    <t>76.03 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.67 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6 </t>
+  </si>
+  <si>
+    <t>80.92 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.93 </t>
+  </si>
+  <si>
+    <t>80.4 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5 </t>
   </si>
   <si>
     <t xml:space="preserve">81.65 </t>
   </si>
   <si>
-    <t>79.62 *</t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.52 </t>
-  </si>
-  <si>
-    <t>80.95 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.65 </t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t>79.95 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.65 </t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.5 </t>
-  </si>
-  <si>
-    <t>80.55 *</t>
-  </si>
-  <si>
-    <t>79.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.45 </t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.3 </t>
-  </si>
-  <si>
-    <t>80.25 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.85 </t>
-  </si>
-  <si>
-    <t>SXF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.22 </t>
-  </si>
-  <si>
-    <t>79.0 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.58 </t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1 </t>
-  </si>
-  <si>
-    <t>74.9 *</t>
-  </si>
-  <si>
-    <t>75.85 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.67 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.82 </t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.93 </t>
-  </si>
-  <si>
-    <t>80.37 *</t>
-  </si>
-  <si>
-    <t>80.9 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.75 </t>
-  </si>
-  <si>
-    <t>XTE  INF  CAF  AOF  THF  VOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.58 </t>
+    <t>XTE  INF  CAF  AOF  THF  VOF  NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.55 </t>
   </si>
   <si>
     <t xml:space="preserve">79.27 </t>
@@ -640,7 +652,7 @@
     <t>80.15 *</t>
   </si>
   <si>
-    <t xml:space="preserve">83.42 </t>
+    <t xml:space="preserve">84.87 </t>
   </si>
   <si>
     <t xml:space="preserve">83.47 </t>
@@ -849,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S69" totalsRowShown="0">
-  <autoFilter ref="A40:S69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S68" totalsRowShown="0">
+  <autoFilter ref="A40:S68"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1161,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,7 +1181,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1269,7 +1281,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1288,7 +1300,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1419,71 +1431,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q40" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="R40" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="S40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1516,12 +1528,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>85.68000000000001</v>
+        <v>87.12</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1554,12 +1566,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>85.34999999999999</v>
+        <v>85.93000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1592,12 +1604,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>86.15000000000001</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1630,12 +1642,12 @@
         <v>84</v>
       </c>
       <c r="S44" s="9">
-        <v>85.97</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>85</v>
@@ -1668,12 +1680,12 @@
         <v>90</v>
       </c>
       <c r="S45" s="9">
-        <v>86.18000000000001</v>
+        <v>87.08</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>91</v>
@@ -1706,12 +1718,12 @@
         <v>96</v>
       </c>
       <c r="S46" s="9">
-        <v>83.90000000000001</v>
+        <v>84.98</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>97</v>
@@ -1744,12 +1756,12 @@
         <v>102</v>
       </c>
       <c r="S47" s="9">
-        <v>86.22</v>
+        <v>86.53</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>103</v>
@@ -1782,12 +1794,12 @@
         <v>108</v>
       </c>
       <c r="S48" s="9">
-        <v>84.2</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>109</v>
@@ -1817,18 +1829,18 @@
         <v>110</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="S49" s="9">
-        <v>83.68000000000001</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>60</v>
@@ -1843,30 +1855,30 @@
         <v>20</v>
       </c>
       <c r="M50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="Q50" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S50" s="9">
-        <v>85.65000000000001</v>
+        <v>85.62</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>60</v>
@@ -1881,30 +1893,30 @@
         <v>20</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="O51" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S51" s="9">
-        <v>86.55</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>60</v>
@@ -1919,27 +1931,27 @@
         <v>20</v>
       </c>
       <c r="M52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>130</v>
       </c>
       <c r="S52" s="9">
-        <v>84.93000000000001</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>131</v>
@@ -1972,12 +1984,12 @@
         <v>136</v>
       </c>
       <c r="S53" s="9">
-        <v>85.09999999999999</v>
+        <v>85.65000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>137</v>
@@ -1995,30 +2007,30 @@
         <v>20</v>
       </c>
       <c r="M54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="N54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="Q54" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S54" s="9">
-        <v>86.2</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>60</v>
@@ -2033,30 +2045,30 @@
         <v>20</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S55" s="9">
-        <v>85.55</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>60</v>
@@ -2071,30 +2083,30 @@
         <v>20</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="S56" s="9">
-        <v>86.88</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>60</v>
@@ -2109,30 +2121,30 @@
         <v>20</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>152</v>
+        <v>122</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="S57" s="9">
-        <v>85.25</v>
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>60</v>
@@ -2147,30 +2159,30 @@
         <v>20</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P58" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S58" s="9">
-        <v>85.90000000000001</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>60</v>
@@ -2185,30 +2197,30 @@
         <v>20</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="S59" s="9">
-        <v>85.73</v>
+        <v>86.08</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>60</v>
@@ -2223,30 +2235,30 @@
         <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="S60" s="9">
-        <v>85.34999999999999</v>
+        <v>87.17</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>60</v>
@@ -2261,30 +2273,30 @@
         <v>20</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="S61" s="9">
-        <v>86.65000000000001</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>60</v>
@@ -2299,30 +2311,30 @@
         <v>20</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="S62" s="9">
-        <v>85.73</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>60</v>
@@ -2337,30 +2349,30 @@
         <v>20</v>
       </c>
       <c r="M63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N63" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="O63" s="9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="S63" s="9">
-        <v>85.2</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>60</v>
@@ -2375,30 +2387,30 @@
         <v>20</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="S64" s="9">
-        <v>85.90000000000001</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>60</v>
@@ -2413,30 +2425,30 @@
         <v>20</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="S65" s="9">
-        <v>85.67</v>
+        <v>86.17</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>60</v>
@@ -2451,30 +2463,30 @@
         <v>20</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S66" s="9">
-        <v>85.28</v>
+        <v>86.53</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>60</v>
@@ -2489,30 +2501,30 @@
         <v>20</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P67" s="10" t="s">
-        <v>195</v>
+        <v>158</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S67" s="9">
-        <v>85.05</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="8">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>60</v>
@@ -2527,60 +2539,22 @@
         <v>20</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="S68" s="9">
-        <v>83.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="8">
-        <v>333</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="9">
-        <v>5</v>
-      </c>
-      <c r="L69" s="9">
-        <v>20</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q69" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="S69" s="9">
-        <v>83.47</v>
+        <v>84.87</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="233">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 22/05/2020 18:53:54</t>
+    <t>Issue date: 23/05/2020 01:31:18</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t>ACF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,22 +202,22 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>76.33 *</t>
-  </si>
-  <si>
-    <t>53.97 *</t>
-  </si>
-  <si>
-    <t>59.25 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.12 </t>
+    <t>76.55 *</t>
+  </si>
+  <si>
+    <t>54.23 *</t>
+  </si>
+  <si>
+    <t>65.33 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.83 </t>
   </si>
   <si>
     <t>66.02 *</t>
   </si>
   <si>
-    <t>AGF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t>AGF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">79.35 </t>
@@ -226,16 +226,16 @@
     <t xml:space="preserve">79.12 </t>
   </si>
   <si>
-    <t xml:space="preserve">78.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.93 </t>
-  </si>
-  <si>
-    <t>77.32 *</t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t xml:space="preserve">78.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.33 </t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">78.85 </t>
@@ -244,16 +244,16 @@
     <t>80.52 *</t>
   </si>
   <si>
-    <t>80.67 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.88 </t>
-  </si>
-  <si>
-    <t>79.38 *</t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t>80.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.38 </t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">79.93 </t>
@@ -262,400 +262,388 @@
     <t xml:space="preserve">80.65 </t>
   </si>
   <si>
-    <t>80.85 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.75 </t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t>80.88 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.1 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">81.72 </t>
   </si>
   <si>
-    <t xml:space="preserve">83.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.93 </t>
+    <t xml:space="preserve">83.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.75 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.55 </t>
+  </si>
+  <si>
+    <t>75.4 *</t>
+  </si>
+  <si>
+    <t>78.38 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.73 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7 </t>
+  </si>
+  <si>
+    <t>81.12 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.85 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.47 </t>
+  </si>
+  <si>
+    <t>80.05 *</t>
+  </si>
+  <si>
+    <t>80.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.45 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.68 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t>79.9 *</t>
+  </si>
+  <si>
+    <t>80.73 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.03 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.83 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.55 </t>
+  </si>
+  <si>
+    <t>79.55 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.1 </t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.23 </t>
+  </si>
+  <si>
+    <t>80.2 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.12 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.55 </t>
+  </si>
+  <si>
+    <t>81.15 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.83 </t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.08 </t>
+  </si>
+  <si>
+    <t>80.77 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.88 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t>81.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.47 </t>
+  </si>
+  <si>
+    <t>80.65 *</t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.52 </t>
+  </si>
+  <si>
+    <t>81.1 *</t>
+  </si>
+  <si>
+    <t>80.92 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.85 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.88 </t>
+  </si>
+  <si>
+    <t>79.95 *</t>
+  </si>
+  <si>
+    <t>80.13 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.68 </t>
+  </si>
+  <si>
+    <t>SPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.5 </t>
+  </si>
+  <si>
+    <t>80.53 *</t>
+  </si>
+  <si>
+    <t>79.58 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.95 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.3 </t>
+  </si>
+  <si>
+    <t>80.25 *</t>
+  </si>
+  <si>
+    <t>80.0 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.95 </t>
+  </si>
+  <si>
+    <t>SXF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.22 </t>
+  </si>
+  <si>
+    <t>79.0 *</t>
+  </si>
+  <si>
+    <t>79.97 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.35 </t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.1 </t>
+  </si>
+  <si>
+    <t>74.9 *</t>
+  </si>
+  <si>
+    <t>76.0 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.67 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6 </t>
+  </si>
+  <si>
+    <t>80.8 *</t>
   </si>
   <si>
     <t xml:space="preserve">87.08 </t>
   </si>
   <si>
-    <t xml:space="preserve">81.78 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.55 </t>
-  </si>
-  <si>
-    <t>75.4 *</t>
-  </si>
-  <si>
-    <t>78.17 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7 </t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.27 </t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7 </t>
-  </si>
-  <si>
-    <t>81.12 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.82 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.47 </t>
-  </si>
-  <si>
-    <t>80.05 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.62 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t>79.9 *</t>
-  </si>
-  <si>
-    <t>80.93 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.25 </t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.33 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.55 </t>
-  </si>
-  <si>
-    <t>79.6 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.65 </t>
-  </si>
-  <si>
-    <t>78.75 *</t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.23 </t>
-  </si>
-  <si>
-    <t>80.2 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.1 </t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.55 </t>
-  </si>
-  <si>
-    <t>81.08 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.32 </t>
-  </si>
-  <si>
-    <t>PNF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.57 </t>
-  </si>
-  <si>
-    <t>80.9 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.88 </t>
-  </si>
-  <si>
-    <t>PW  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t>80.62 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6 </t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t>80.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.1 </t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t>81.6 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.08 </t>
-  </si>
-  <si>
-    <t>79.62 *</t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.52 </t>
-  </si>
-  <si>
-    <t>81.1 *</t>
-  </si>
-  <si>
-    <t>80.83 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.75 </t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t>79.95 *</t>
-  </si>
-  <si>
-    <t>80.03 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6 </t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.5 </t>
-  </si>
-  <si>
-    <t>80.55 *</t>
-  </si>
-  <si>
-    <t>79.53 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.43 </t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.3 </t>
-  </si>
-  <si>
-    <t>80.25 *</t>
-  </si>
-  <si>
-    <t>80.23 *</t>
-  </si>
-  <si>
-    <t>SXF  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.22 </t>
-  </si>
-  <si>
-    <t>79.03 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.58 </t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1 </t>
-  </si>
-  <si>
-    <t>74.9 *</t>
-  </si>
-  <si>
-    <t>76.03 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.67 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6 </t>
-  </si>
-  <si>
-    <t>80.92 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8 </t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF  THF  VOF  NW</t>
+    <t xml:space="preserve">82.82 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF  VOF  NW  PW</t>
   </si>
   <si>
     <t xml:space="preserve">82.93 </t>
   </si>
   <si>
-    <t>80.4 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5 </t>
+    <t>80.37 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.15 </t>
   </si>
   <si>
     <t xml:space="preserve">81.65 </t>
   </si>
   <si>
-    <t>XTE  INF  CAF  AOF  THF  VOF  NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.55 </t>
+    <t>XTE  INF  CAF  AOF  THF  VOF  NW  PW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.58 </t>
   </si>
   <si>
     <t xml:space="preserve">79.27 </t>
   </si>
   <si>
-    <t>80.15 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.47 </t>
+    <t>80.17 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.42 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -861,8 +849,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S68" totalsRowShown="0">
-  <autoFilter ref="A40:S68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S67" totalsRowShown="0">
+  <autoFilter ref="A40:S67"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1173,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1181,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1281,7 +1269,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1289,7 +1277,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1300,7 +1288,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1431,71 +1419,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>219</v>
       </c>
-      <c r="C40" t="s">
+      <c r="G40" t="s">
         <v>220</v>
       </c>
-      <c r="D40" t="s">
+      <c r="H40" t="s">
         <v>221</v>
-      </c>
-      <c r="E40" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" t="s">
-        <v>225</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" t="s">
+        <v>225</v>
+      </c>
+      <c r="N40" t="s">
         <v>226</v>
       </c>
-      <c r="K40" t="s">
+      <c r="O40" t="s">
         <v>227</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>228</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
         <v>229</v>
       </c>
-      <c r="N40" t="s">
+      <c r="R40" t="s">
         <v>230</v>
       </c>
-      <c r="O40" t="s">
+      <c r="S40" t="s">
         <v>231</v>
-      </c>
-      <c r="P40" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>233</v>
-      </c>
-      <c r="R40" t="s">
-        <v>234</v>
-      </c>
-      <c r="S40" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1528,12 +1516,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>87.12</v>
+        <v>86.83</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1566,12 +1554,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>85.93000000000001</v>
+        <v>86.12</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1604,12 +1592,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>86.88</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1642,12 +1630,12 @@
         <v>84</v>
       </c>
       <c r="S44" s="9">
-        <v>86.59999999999999</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>85</v>
@@ -1680,12 +1668,12 @@
         <v>90</v>
       </c>
       <c r="S45" s="9">
-        <v>87.08</v>
+        <v>87.27</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>91</v>
@@ -1718,12 +1706,12 @@
         <v>96</v>
       </c>
       <c r="S46" s="9">
-        <v>84.98</v>
+        <v>85.38</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>97</v>
@@ -1756,12 +1744,12 @@
         <v>102</v>
       </c>
       <c r="S47" s="9">
-        <v>86.53</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>103</v>
@@ -1782,217 +1770,217 @@
         <v>105</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P48" s="9" t="s">
         <v>104</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S48" s="9">
-        <v>85.52</v>
+        <v>85.88</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="9">
+        <v>5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="9">
-        <v>5</v>
-      </c>
-      <c r="L49" s="9">
-        <v>20</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N49" s="9" t="s">
+      <c r="Q49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="S49" s="9">
-        <v>84.59999999999999</v>
+        <v>84.98</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="9">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="9">
-        <v>5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>20</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O50" s="9" t="s">
+      <c r="Q50" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="P50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="S50" s="9">
-        <v>85.62</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="9">
-        <v>5</v>
-      </c>
-      <c r="L51" s="9">
-        <v>20</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S51" s="9">
-        <v>86.84999999999999</v>
+        <v>86.67</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="9">
+        <v>5</v>
+      </c>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="9">
-        <v>5</v>
-      </c>
-      <c r="L52" s="9">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="N52" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="O52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="P52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="S52" s="9">
-        <v>84.90000000000001</v>
+        <v>85.22</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="9">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="9">
-        <v>5</v>
-      </c>
-      <c r="L53" s="9">
-        <v>20</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="N53" s="9" t="s">
+      <c r="Q53" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O53" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="S53" s="9">
-        <v>85.65000000000001</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>60</v>
@@ -2007,27 +1995,27 @@
         <v>20</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N54" s="9" t="s">
         <v>140</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>141</v>
       </c>
       <c r="S54" s="9">
-        <v>86.25</v>
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>142</v>
@@ -2045,30 +2033,30 @@
         <v>20</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="Q55" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S55" s="9">
-        <v>86.33</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>60</v>
@@ -2083,30 +2071,30 @@
         <v>20</v>
       </c>
       <c r="M56" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="P56" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="Q56" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S56" s="9">
-        <v>86.45</v>
+        <v>86.65000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>60</v>
@@ -2121,45 +2109,45 @@
         <v>20</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="P57" s="9" t="s">
         <v>68</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S57" s="9">
-        <v>87.56999999999999</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>272</v>
+        <v>332</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58" s="9">
+        <v>5</v>
+      </c>
+      <c r="L58" s="9">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="9">
-        <v>5</v>
-      </c>
-      <c r="L58" s="9">
-        <v>20</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="N58" s="9" t="s">
         <v>159</v>
@@ -2168,18 +2156,18 @@
         <v>158</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>160</v>
       </c>
       <c r="S58" s="9">
-        <v>86.5</v>
+        <v>86.47</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>161</v>
@@ -2197,30 +2185,30 @@
         <v>20</v>
       </c>
       <c r="M59" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="P59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O59" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="Q59" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S59" s="9">
-        <v>86.08</v>
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>60</v>
@@ -2235,27 +2223,27 @@
         <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="P60" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>171</v>
       </c>
       <c r="S60" s="9">
-        <v>87.17</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>172</v>
@@ -2273,30 +2261,30 @@
         <v>20</v>
       </c>
       <c r="M61" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P61" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="N61" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="Q61" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S61" s="9">
-        <v>86.38</v>
+        <v>87.06999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>60</v>
@@ -2311,27 +2299,27 @@
         <v>20</v>
       </c>
       <c r="M62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P62" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N62" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O62" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="Q62" s="9" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="S62" s="9">
-        <v>87.05</v>
+        <v>86.95</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>183</v>
@@ -2351,8 +2339,8 @@
       <c r="M63" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>175</v>
+      <c r="N63" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="O63" s="9" t="s">
         <v>186</v>
@@ -2361,18 +2349,18 @@
         <v>184</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S63" s="9">
-        <v>86.38</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>60</v>
@@ -2387,30 +2375,30 @@
         <v>20</v>
       </c>
       <c r="M64" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P64" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="Q64" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S64" s="9">
-        <v>86.7</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>60</v>
@@ -2425,30 +2413,30 @@
         <v>20</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P65" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="P65" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="Q65" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S65" s="9">
-        <v>86.17</v>
+        <v>87.08</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>60</v>
@@ -2463,98 +2451,60 @@
         <v>20</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="O66" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="P66" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="Q66" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S66" s="9">
-        <v>86.53</v>
+        <v>85.15000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="8">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="F67" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="9">
+        <v>5</v>
+      </c>
+      <c r="L67" s="9">
+        <v>20</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="9">
-        <v>5</v>
-      </c>
-      <c r="L67" s="9">
-        <v>20</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="N67" s="9" t="s">
+      <c r="O67" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="P67" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="O67" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="Q67" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S67" s="9">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" s="8">
-        <v>334</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="9">
-        <v>5</v>
-      </c>
-      <c r="L68" s="9">
-        <v>20</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q68" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="S68" s="9">
-        <v>84.87</v>
+        <v>85.15000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="232">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 23/05/2020 01:31:18</t>
+    <t>Issue date: 24/05/2020 06:25:27</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF  THF  VOF  NW  PW</t>
+    <t>ACF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,448 +202,445 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>76.55 *</t>
-  </si>
-  <si>
-    <t>54.23 *</t>
-  </si>
-  <si>
-    <t>65.33 *</t>
+    <t>76.37 *</t>
+  </si>
+  <si>
+    <t>53.83 *</t>
+  </si>
+  <si>
+    <t>64.25 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.88 </t>
+  </si>
+  <si>
+    <t>65.45 *</t>
+  </si>
+  <si>
+    <t>AGF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.62 </t>
+  </si>
+  <si>
+    <t>77.33 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.33 </t>
+  </si>
+  <si>
+    <t>78.15 *</t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.72 </t>
+  </si>
+  <si>
+    <t>78.6 *</t>
+  </si>
+  <si>
+    <t>79.35 *</t>
   </si>
   <si>
     <t xml:space="preserve">86.83 </t>
   </si>
   <si>
-    <t>66.02 *</t>
-  </si>
-  <si>
-    <t>AGF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.33 </t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.85 </t>
-  </si>
-  <si>
-    <t>80.52 *</t>
-  </si>
-  <si>
-    <t>80.62 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.38 </t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.65 </t>
-  </si>
-  <si>
-    <t>80.88 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.1 </t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.75 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.55 </t>
-  </si>
-  <si>
-    <t>75.4 *</t>
-  </si>
-  <si>
-    <t>78.38 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.73 </t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.78 </t>
+    <t xml:space="preserve">81.07 </t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.03 </t>
+  </si>
+  <si>
+    <t>79.6 *</t>
+  </si>
+  <si>
+    <t>80.45 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.85 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.15 </t>
+  </si>
+  <si>
+    <t>75.7 *</t>
+  </si>
+  <si>
+    <t>78.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5 </t>
+  </si>
+  <si>
+    <t>81.75 *</t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.52 </t>
+  </si>
+  <si>
+    <t>79.8 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.35 </t>
+  </si>
+  <si>
+    <t>81.15 *</t>
+  </si>
+  <si>
+    <t>81.65 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.1 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t>79.02 *</t>
+  </si>
+  <si>
+    <t>79.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.75 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7 </t>
+  </si>
+  <si>
+    <t>80.27 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.23 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.2 </t>
+  </si>
+  <si>
+    <t>79.03 *</t>
+  </si>
+  <si>
+    <t>80.13 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.12 </t>
+  </si>
+  <si>
+    <t>81.4 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.38 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.8 </t>
+  </si>
+  <si>
+    <t>79.38 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6 </t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.08 </t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.35 </t>
+  </si>
+  <si>
+    <t>80.68 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.82 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.22 </t>
+  </si>
+  <si>
+    <t>80.05 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.05 </t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.98 </t>
+  </si>
+  <si>
+    <t>79.5 *</t>
+  </si>
+  <si>
+    <t>80.73 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.25 </t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.4 </t>
+  </si>
+  <si>
+    <t>80.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.42 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.42 </t>
+  </si>
+  <si>
+    <t>79.58 *</t>
+  </si>
+  <si>
+    <t>79.55 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.47 </t>
+  </si>
+  <si>
+    <t>SPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t>79.18 *</t>
+  </si>
+  <si>
+    <t>79.72 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.85 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t>77.25 *</t>
+  </si>
+  <si>
+    <t>78.8 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.17 </t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.42 </t>
+  </si>
+  <si>
+    <t>78.03 *</t>
+  </si>
+  <si>
+    <t>76.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.85 </t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.28 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.28 </t>
+  </si>
+  <si>
+    <t>79.62 *</t>
+  </si>
+  <si>
+    <t>80.28 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.55 </t>
+  </si>
+  <si>
+    <t>XTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.25 </t>
+  </si>
+  <si>
+    <t>80.75 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7 </t>
   </si>
   <si>
     <t xml:space="preserve">82.27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.85 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3 </t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7 </t>
-  </si>
-  <si>
-    <t>81.12 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.85 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.47 </t>
-  </si>
-  <si>
-    <t>80.05 *</t>
-  </si>
-  <si>
-    <t>80.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.98 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.45 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.68 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t>79.9 *</t>
-  </si>
-  <si>
-    <t>80.73 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.03 </t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.83 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.55 </t>
-  </si>
-  <si>
-    <t>79.55 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.1 </t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.23 </t>
-  </si>
-  <si>
-    <t>80.2 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.12 </t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.55 </t>
-  </si>
-  <si>
-    <t>81.15 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.83 </t>
-  </si>
-  <si>
-    <t>PNF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.08 </t>
-  </si>
-  <si>
-    <t>80.77 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.65 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.88 </t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t>81.6 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.47 </t>
-  </si>
-  <si>
-    <t>80.65 *</t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.52 </t>
-  </si>
-  <si>
-    <t>81.1 *</t>
-  </si>
-  <si>
-    <t>80.92 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.85 </t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.88 </t>
-  </si>
-  <si>
-    <t>79.95 *</t>
-  </si>
-  <si>
-    <t>80.13 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.68 </t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.5 </t>
-  </si>
-  <si>
-    <t>80.53 *</t>
-  </si>
-  <si>
-    <t>79.58 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.95 </t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.3 </t>
-  </si>
-  <si>
-    <t>80.25 *</t>
-  </si>
-  <si>
-    <t>80.0 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.95 </t>
-  </si>
-  <si>
-    <t>SXF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.22 </t>
-  </si>
-  <si>
-    <t>79.0 *</t>
-  </si>
-  <si>
-    <t>79.97 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.35 </t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1 </t>
-  </si>
-  <si>
-    <t>74.9 *</t>
-  </si>
-  <si>
-    <t>76.0 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.67 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.62 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6 </t>
-  </si>
-  <si>
-    <t>80.8 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.82 </t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.93 </t>
-  </si>
-  <si>
-    <t>80.37 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.65 </t>
-  </si>
-  <si>
-    <t>XTE  INF  CAF  AOF  THF  VOF  NW  PW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.27 </t>
-  </si>
-  <si>
-    <t>80.17 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.42 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -849,8 +846,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S67" totalsRowShown="0">
-  <autoFilter ref="A40:S67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S66" totalsRowShown="0">
+  <autoFilter ref="A40:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1161,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1269,7 +1266,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1277,7 +1274,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1419,71 +1416,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
         <v>214</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>215</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>216</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>218</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>219</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>220</v>
-      </c>
-      <c r="H40" t="s">
-        <v>221</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
+        <v>221</v>
+      </c>
+      <c r="K40" t="s">
         <v>222</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>223</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>224</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>225</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>226</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>227</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>228</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>229</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>230</v>
-      </c>
-      <c r="S40" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1516,12 +1513,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>86.83</v>
+        <v>86.88</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1554,12 +1551,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>86.12</v>
+        <v>86.33</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1592,12 +1589,12 @@
         <v>78</v>
       </c>
       <c r="S43" s="9">
-        <v>86.75</v>
+        <v>86.83</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>79</v>
@@ -1630,12 +1627,12 @@
         <v>84</v>
       </c>
       <c r="S44" s="9">
-        <v>87.05</v>
+        <v>86.56999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>85</v>
@@ -1668,12 +1665,12 @@
         <v>90</v>
       </c>
       <c r="S45" s="9">
-        <v>87.27</v>
+        <v>87.28</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>91</v>
@@ -1706,12 +1703,12 @@
         <v>96</v>
       </c>
       <c r="S46" s="9">
-        <v>85.38</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>97</v>
@@ -1744,12 +1741,12 @@
         <v>102</v>
       </c>
       <c r="S47" s="9">
-        <v>86.84999999999999</v>
+        <v>86.48</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>103</v>
@@ -1770,27 +1767,27 @@
         <v>105</v>
       </c>
       <c r="N48" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="P48" s="9" t="s">
         <v>104</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S48" s="9">
-        <v>85.88</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>60</v>
@@ -1805,30 +1802,30 @@
         <v>20</v>
       </c>
       <c r="M49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="Q49" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S49" s="9">
-        <v>84.98</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>60</v>
@@ -1843,30 +1840,30 @@
         <v>20</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O50" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="P50" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="Q50" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S50" s="9">
-        <v>85.72</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>60</v>
@@ -1881,30 +1878,30 @@
         <v>20</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="O51" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="Q51" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S51" s="9">
-        <v>86.67</v>
+        <v>86.72</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>60</v>
@@ -1919,30 +1916,30 @@
         <v>20</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P52" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="O52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="Q52" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S52" s="9">
-        <v>85.22</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>60</v>
@@ -1957,30 +1954,30 @@
         <v>20</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="O53" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="Q53" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S53" s="9">
-        <v>86.3</v>
+        <v>85.83</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>60</v>
@@ -1995,30 +1992,30 @@
         <v>20</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P54" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="P54" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="Q54" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S54" s="9">
-        <v>87.09999999999999</v>
+        <v>87.17</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>60</v>
@@ -2033,30 +2030,30 @@
         <v>20</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="P55" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O55" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="Q55" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S55" s="9">
-        <v>86.45</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>60</v>
@@ -2071,30 +2068,30 @@
         <v>20</v>
       </c>
       <c r="M56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P56" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="Q56" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S56" s="9">
-        <v>86.65000000000001</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>60</v>
@@ -2109,30 +2106,30 @@
         <v>20</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="S57" s="9">
-        <v>86.75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>60</v>
@@ -2147,30 +2144,30 @@
         <v>20</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="S58" s="9">
-        <v>86.47</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>60</v>
@@ -2185,30 +2182,30 @@
         <v>20</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="S59" s="9">
-        <v>86.90000000000001</v>
+        <v>87.03</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>60</v>
@@ -2223,30 +2220,30 @@
         <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="S60" s="9">
-        <v>86.75</v>
+        <v>87.15000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>60</v>
@@ -2261,30 +2258,30 @@
         <v>20</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="S61" s="9">
-        <v>87.06999999999999</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>60</v>
@@ -2299,30 +2296,30 @@
         <v>20</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="S62" s="9">
-        <v>86.95</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>60</v>
@@ -2337,30 +2334,30 @@
         <v>20</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="S63" s="9">
-        <v>87.34999999999999</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>60</v>
@@ -2375,30 +2372,30 @@
         <v>20</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="S64" s="9">
-        <v>85.8</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>60</v>
@@ -2413,30 +2410,30 @@
         <v>20</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="P65" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="S65" s="9">
-        <v>87.08</v>
+        <v>85.3</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="8">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>60</v>
@@ -2451,60 +2448,22 @@
         <v>20</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="N66" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="S66" s="9">
-        <v>85.15000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="8">
-        <v>335</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="9">
-        <v>5</v>
-      </c>
-      <c r="L67" s="9">
-        <v>20</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q67" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="S67" s="9">
-        <v>85.15000000000001</v>
+        <v>84.7</v>
       </c>
     </row>
   </sheetData>

--- a/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
+++ b/anorexia_data/ACCURACY for Corpus of 100 normal & 100 anorexia in English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="219">
   <si>
     <t>Corpus of 100 normal &amp; 100 anorexia in English</t>
   </si>
@@ -25,7 +25,7 @@
     <t>General information about the classification software</t>
   </si>
   <si>
-    <t>Issue date: 24/05/2020 06:25:27</t>
+    <t>Issue date: 24/05/2020 19:12:32</t>
   </si>
   <si>
     <t>Python version: Python 3.7.7</t>
@@ -193,7 +193,7 @@
     <t>TOPB3 - Enable all features on the last ten words of the text</t>
   </si>
   <si>
-    <t>ACF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+    <t>ACF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
   </si>
   <si>
     <t xml:space="preserve">L </t>
@@ -202,445 +202,406 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>76.37 *</t>
-  </si>
-  <si>
-    <t>53.83 *</t>
-  </si>
-  <si>
-    <t>64.25 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.88 </t>
+    <t>77.8 *</t>
+  </si>
+  <si>
+    <t>55.55 *</t>
+  </si>
+  <si>
+    <t>64.62 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.38 </t>
   </si>
   <si>
     <t>65.45 *</t>
   </si>
   <si>
-    <t>AGF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.62 </t>
-  </si>
-  <si>
-    <t>77.33 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.33 </t>
-  </si>
-  <si>
-    <t>78.15 *</t>
-  </si>
-  <si>
-    <t>ALF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.72 </t>
-  </si>
-  <si>
-    <t>78.6 *</t>
-  </si>
-  <si>
-    <t>79.35 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.07 </t>
-  </si>
-  <si>
-    <t>ANF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.03 </t>
-  </si>
-  <si>
-    <t>79.6 *</t>
-  </si>
-  <si>
-    <t>80.45 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6 </t>
-  </si>
-  <si>
-    <t>CUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.85 </t>
-  </si>
-  <si>
-    <t>DEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.15 </t>
-  </si>
-  <si>
-    <t>75.7 *</t>
-  </si>
-  <si>
-    <t>78.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5 </t>
-  </si>
-  <si>
-    <t>81.75 *</t>
-  </si>
-  <si>
-    <t>E50TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
+    <t>AGF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.33 </t>
+  </si>
+  <si>
+    <t>78.25 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.05 </t>
+  </si>
+  <si>
+    <t>ALF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>78.38 *</t>
+  </si>
+  <si>
+    <t>78.3 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.38 </t>
+  </si>
+  <si>
+    <t>ANF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0 </t>
+  </si>
+  <si>
+    <t>80.95 *</t>
+  </si>
+  <si>
+    <t>79.55 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7 </t>
+  </si>
+  <si>
+    <t>CUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.5 </t>
+  </si>
+  <si>
+    <t>DEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>79.4 *</t>
+  </si>
+  <si>
+    <t>76.62 *</t>
+  </si>
+  <si>
+    <t>79.5 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.22 </t>
+  </si>
+  <si>
+    <t>E50TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.02 </t>
+  </si>
+  <si>
+    <t>79.87 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.15 </t>
+  </si>
+  <si>
+    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.95 </t>
+  </si>
+  <si>
+    <t>78.55 *</t>
+  </si>
+  <si>
+    <t>79.8 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.23 </t>
+  </si>
+  <si>
+    <t>FDF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3 </t>
+  </si>
+  <si>
+    <t>78.85 *</t>
+  </si>
+  <si>
+    <t>80.0 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.15 </t>
+  </si>
+  <si>
+    <t>FPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.42 </t>
+  </si>
+  <si>
+    <t>78.93 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.67 </t>
+  </si>
+  <si>
+    <t>FRC  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>79.18 *</t>
+  </si>
+  <si>
+    <t>79.72 *</t>
+  </si>
+  <si>
+    <t>79.43 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2 </t>
+  </si>
+  <si>
+    <t>FTF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.55 </t>
+  </si>
+  <si>
+    <t>80.83 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.78 </t>
+  </si>
+  <si>
+    <t>HUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>79.1 *</t>
+  </si>
+  <si>
+    <t>79.97 *</t>
+  </si>
+  <si>
+    <t>80.15 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.17 </t>
+  </si>
+  <si>
+    <t>LOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.27 </t>
+  </si>
+  <si>
+    <t>79.9 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9 </t>
+  </si>
+  <si>
+    <t>NOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>80.4 *</t>
+  </si>
+  <si>
+    <t>78.97 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.27 </t>
+  </si>
+  <si>
+    <t>PNF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.45 </t>
+  </si>
+  <si>
+    <t>80.85 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.77 </t>
+  </si>
+  <si>
+    <t>REF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>78.98 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.82 </t>
+  </si>
+  <si>
+    <t>SIF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7 </t>
+  </si>
+  <si>
+    <t>80.6 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.23 </t>
+  </si>
+  <si>
+    <t>SKF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.67 </t>
+  </si>
+  <si>
+    <t>79.42 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.58 </t>
+  </si>
+  <si>
+    <t>SLF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>79.58 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.88 </t>
+  </si>
+  <si>
+    <t>SPF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>78.8 *</t>
+  </si>
+  <si>
+    <t>77.95 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.15 </t>
+  </si>
+  <si>
+    <t>TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>77.23 *</t>
+  </si>
+  <si>
+    <t>77.35 *</t>
+  </si>
+  <si>
+    <t>78.7 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.72 </t>
+  </si>
+  <si>
+    <t>81.0 *</t>
+  </si>
+  <si>
+    <t>TPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
   </si>
   <si>
     <t xml:space="preserve">80.52 </t>
   </si>
   <si>
-    <t>79.8 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8 </t>
-  </si>
-  <si>
-    <t>E50TTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.35 </t>
-  </si>
-  <si>
-    <t>81.15 *</t>
-  </si>
-  <si>
-    <t>81.65 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.1 </t>
-  </si>
-  <si>
-    <t>FDF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.95 </t>
-  </si>
-  <si>
-    <t>79.02 *</t>
-  </si>
-  <si>
-    <t>79.85 *</t>
+    <t xml:space="preserve">83.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.05 </t>
+  </si>
+  <si>
+    <t>WEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t>79.68 *</t>
+  </si>
+  <si>
+    <t>79.17 *</t>
   </si>
   <si>
     <t xml:space="preserve">85.1 </t>
   </si>
   <si>
-    <t xml:space="preserve">79.75 </t>
-  </si>
-  <si>
-    <t>FPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7 </t>
-  </si>
-  <si>
-    <t>80.27 *</t>
+    <t>XTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF  SPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.55 </t>
+  </si>
+  <si>
+    <t>77.88 *</t>
+  </si>
+  <si>
+    <t>79.62 *</t>
   </si>
   <si>
     <t xml:space="preserve">85.35 </t>
   </si>
   <si>
-    <t xml:space="preserve">85.23 </t>
-  </si>
-  <si>
-    <t>FRC  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.2 </t>
-  </si>
-  <si>
-    <t>79.03 *</t>
-  </si>
-  <si>
-    <t>80.13 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0 </t>
-  </si>
-  <si>
-    <t>FTF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.12 </t>
-  </si>
-  <si>
-    <t>81.4 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.38 </t>
-  </si>
-  <si>
-    <t>HUF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.8 </t>
-  </si>
-  <si>
-    <t>79.38 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6 </t>
-  </si>
-  <si>
-    <t>LOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4 </t>
-  </si>
-  <si>
-    <t>NOF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.08 </t>
-  </si>
-  <si>
-    <t>PNF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.35 </t>
-  </si>
-  <si>
-    <t>80.68 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.82 </t>
-  </si>
-  <si>
-    <t>REF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.22 </t>
-  </si>
-  <si>
-    <t>80.05 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.05 </t>
-  </si>
-  <si>
-    <t>SIF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.98 </t>
-  </si>
-  <si>
-    <t>79.5 *</t>
-  </si>
-  <si>
-    <t>80.73 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.25 </t>
-  </si>
-  <si>
-    <t>SKF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.4 </t>
-  </si>
-  <si>
-    <t>80.6 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.42 </t>
-  </si>
-  <si>
-    <t>SLF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.42 </t>
-  </si>
-  <si>
-    <t>79.58 *</t>
-  </si>
-  <si>
-    <t>79.55 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.47 </t>
-  </si>
-  <si>
-    <t>SPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t>79.18 *</t>
-  </si>
-  <si>
-    <t>79.72 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.85 </t>
-  </si>
-  <si>
-    <t>SPF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t>77.25 *</t>
-  </si>
-  <si>
-    <t>78.8 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.17 </t>
-  </si>
-  <si>
-    <t>TE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.42 </t>
-  </si>
-  <si>
-    <t>78.03 *</t>
-  </si>
-  <si>
-    <t>76.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.85 </t>
-  </si>
-  <si>
-    <t>TPE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.28 </t>
-  </si>
-  <si>
-    <t>WEF  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.28 </t>
-  </si>
-  <si>
-    <t>79.62 *</t>
-  </si>
-  <si>
-    <t>80.28 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.55 </t>
-  </si>
-  <si>
-    <t>XTE  INF  CAF  AOF  THF  VOF  NW  PW  SXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.25 </t>
-  </si>
-  <si>
-    <t>80.75 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.27 </t>
+    <t xml:space="preserve">83.17 </t>
   </si>
   <si>
     <t>Colors</t>
@@ -846,8 +807,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S66" totalsRowShown="0">
-  <autoFilter ref="A40:S66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A40:S65" totalsRowShown="0">
+  <autoFilter ref="A40:S65"/>
   <tableColumns count="19">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="2" name="Type"/>
@@ -1158,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1166,7 +1127,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1266,7 +1227,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
@@ -1274,7 +1235,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>24</v>
@@ -1285,7 +1246,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -1416,71 +1377,71 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G40" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K40" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="N40" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="O40" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Q40" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="R40" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="S40" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="8">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>59</v>
@@ -1513,12 +1474,12 @@
         <v>66</v>
       </c>
       <c r="S41" s="9">
-        <v>86.88</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="8">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>67</v>
@@ -1551,12 +1512,12 @@
         <v>72</v>
       </c>
       <c r="S42" s="9">
-        <v>86.33</v>
+        <v>86.42</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="8">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>73</v>
@@ -1577,559 +1538,559 @@
         <v>75</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P43" s="9" t="s">
         <v>74</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S43" s="9">
-        <v>86.83</v>
+        <v>87.17</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="8">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" s="9">
+        <v>5</v>
+      </c>
+      <c r="L44" s="9">
+        <v>20</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44" s="9">
-        <v>5</v>
-      </c>
-      <c r="L44" s="9">
-        <v>20</v>
-      </c>
-      <c r="M44" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="N44" s="9" t="s">
+      <c r="Q44" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="S44" s="9">
-        <v>86.56999999999999</v>
+        <v>87.45</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="8">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="9">
+        <v>5</v>
+      </c>
+      <c r="L45" s="9">
+        <v>20</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K45" s="9">
-        <v>5</v>
-      </c>
-      <c r="L45" s="9">
-        <v>20</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="9" t="s">
+      <c r="Q45" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="S45" s="9">
-        <v>87.28</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="8">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="9">
+        <v>5</v>
+      </c>
+      <c r="L46" s="9">
+        <v>20</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="9">
-        <v>5</v>
-      </c>
-      <c r="L46" s="9">
-        <v>20</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="N46" s="9" t="s">
+      <c r="Q46" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O46" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="S46" s="9">
-        <v>85.5</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="8">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5</v>
+      </c>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="9">
-        <v>5</v>
-      </c>
-      <c r="L47" s="9">
-        <v>20</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="Q47" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="S47" s="9">
-        <v>86.48</v>
+        <v>87.15000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="8">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>20</v>
+      </c>
+      <c r="M48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="9">
-        <v>5</v>
-      </c>
-      <c r="L48" s="9">
-        <v>20</v>
-      </c>
-      <c r="M48" s="9" t="s">
+      <c r="N48" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="O48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="P48" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="S48" s="9">
-        <v>85.8</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="8">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="9">
+        <v>5</v>
+      </c>
+      <c r="L49" s="9">
+        <v>20</v>
+      </c>
+      <c r="M49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K49" s="9">
-        <v>5</v>
-      </c>
-      <c r="L49" s="9">
-        <v>20</v>
-      </c>
-      <c r="M49" s="9" t="s">
+      <c r="N49" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="O49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="S49" s="9">
-        <v>85.09999999999999</v>
+        <v>85.55</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="8">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="9">
+        <v>5</v>
+      </c>
+      <c r="L50" s="9">
+        <v>20</v>
+      </c>
+      <c r="M50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K50" s="9">
-        <v>5</v>
-      </c>
-      <c r="L50" s="9">
-        <v>20</v>
-      </c>
-      <c r="M50" s="9" t="s">
+      <c r="N50" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="O50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="P50" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="S50" s="9">
-        <v>85.34999999999999</v>
+        <v>86.53</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="8">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K51" s="9">
+        <v>5</v>
+      </c>
+      <c r="L51" s="9">
+        <v>20</v>
+      </c>
+      <c r="M51" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K51" s="9">
-        <v>5</v>
-      </c>
-      <c r="L51" s="9">
-        <v>20</v>
-      </c>
-      <c r="M51" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="O51" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="S51" s="9">
-        <v>86.72</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="8">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="9">
+        <v>5</v>
+      </c>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O52" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="9">
-        <v>5</v>
-      </c>
-      <c r="L52" s="9">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9" t="s">
+      <c r="P52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="P52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="S52" s="9">
-        <v>84.8</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="8">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" s="9">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9">
+        <v>20</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="9">
-        <v>5</v>
-      </c>
-      <c r="L53" s="9">
-        <v>20</v>
-      </c>
-      <c r="M53" s="9" t="s">
+      <c r="P53" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q53" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N53" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P53" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="S53" s="9">
-        <v>85.83</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="8">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K54" s="9">
+        <v>5</v>
+      </c>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K54" s="9">
-        <v>5</v>
-      </c>
-      <c r="L54" s="9">
-        <v>20</v>
-      </c>
-      <c r="M54" s="9" t="s">
+      <c r="N54" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="O54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q54" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="S54" s="9">
-        <v>87.17</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="8">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="9">
+        <v>5</v>
+      </c>
+      <c r="L55" s="9">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K55" s="9">
-        <v>5</v>
-      </c>
-      <c r="L55" s="9">
-        <v>20</v>
-      </c>
-      <c r="M55" s="9" t="s">
+      <c r="N55" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="O55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q55" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="P55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q55" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="S55" s="9">
-        <v>86.38</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="8">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K56" s="9">
+        <v>5</v>
+      </c>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="9">
-        <v>5</v>
-      </c>
-      <c r="L56" s="9">
-        <v>20</v>
-      </c>
-      <c r="M56" s="9" t="s">
+      <c r="N56" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q56" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="N56" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q56" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="S56" s="9">
-        <v>86.45</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="8">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F57" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="9">
+        <v>5</v>
+      </c>
+      <c r="L57" s="9">
+        <v>20</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q57" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="9">
-        <v>5</v>
-      </c>
-      <c r="L57" s="9">
-        <v>20</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="S57" s="9">
-        <v>87</v>
+        <v>87.06999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="8">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>60</v>
@@ -2144,30 +2105,30 @@
         <v>20</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="S58" s="9">
-        <v>86.25</v>
+        <v>87.23</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="8">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>60</v>
@@ -2182,30 +2143,30 @@
         <v>20</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="S59" s="9">
-        <v>87.03</v>
+        <v>87.42</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="8">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>60</v>
@@ -2220,30 +2181,30 @@
         <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="S60" s="9">
-        <v>87.15000000000001</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="8">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>60</v>
@@ -2258,30 +2219,30 @@
         <v>20</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S61" s="9">
-        <v>87.34999999999999</v>
+        <v>86.92</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>60</v>
@@ -2296,30 +2257,30 @@
         <v>20</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S62" s="9">
-        <v>86.5</v>
+        <v>86.72</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="8">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>60</v>
@@ -2334,30 +2295,30 @@
         <v>20</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="S63" s="9">
-        <v>85.90000000000001</v>
+        <v>86.75</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="8">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>60</v>
@@ -2372,30 +2333,30 @@
         <v>20</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="P64" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="S64" s="9">
-        <v>86.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="8">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>60</v>
@@ -2410,60 +2371,22 @@
         <v>20</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="S65" s="9">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="8">
-        <v>370</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K66" s="9">
-        <v>5</v>
-      </c>
-      <c r="L66" s="9">
-        <v>20</v>
-      </c>
-      <c r="M66" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="N66" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="O66" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="S66" s="9">
-        <v>84.7</v>
+        <v>85.34999999999999</v>
       </c>
     </row>
   </sheetData>
